--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_10_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_10_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2285535.680499911</v>
+        <v>2282853.479050467</v>
       </c>
     </row>
     <row r="7">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>5.64440334803171</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="G2" t="n">
         <v>15.21022140383137</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>206.9118586999128</v>
@@ -713,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>129.856571126251</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>189.0192344459935</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>39.97824588088747</v>
       </c>
     </row>
     <row r="4">
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839145</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>51.96190712986719</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>159.8350691069748</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>164.9963059042467</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>221.2006630000037</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>126.2497261699251</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1026,22 +1026,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>30.61217416357482</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>7.203367682519216</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>7.884372849250095</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>355.2243569087319</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>141.5910331358698</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>4.856694517591443</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>410.1105672232783</v>
       </c>
       <c r="H11" t="n">
-        <v>286.3004881142895</v>
+        <v>286.3004881142887</v>
       </c>
       <c r="I11" t="n">
-        <v>10.30474439359929</v>
+        <v>10.30474439359926</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>90.70348906056009</v>
+        <v>90.70348906056006</v>
       </c>
       <c r="T11" t="n">
         <v>200.3671241115285</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1467,7 @@
         <v>85.40527162386633</v>
       </c>
       <c r="I12" t="n">
-        <v>3.874398615283113</v>
+        <v>3.874398615283098</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>120.0819989810002</v>
+        <v>120.0819989810001</v>
       </c>
       <c r="T12" t="n">
         <v>188.9672134218847</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>15.13597646953605</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.661950512378</v>
       </c>
       <c r="H13" t="n">
-        <v>97.17587780881128</v>
+        <v>141.5199887668301</v>
       </c>
       <c r="I13" t="n">
-        <v>85.41022562875519</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>72.57178526157212</v>
+        <v>72.57178526157209</v>
       </c>
       <c r="S13" t="n">
-        <v>183.4279771466366</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.9942843586635</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,10 +1622,10 @@
         <v>410.1105672232783</v>
       </c>
       <c r="H14" t="n">
-        <v>286.3004881142895</v>
+        <v>286.3004881142894</v>
       </c>
       <c r="I14" t="n">
-        <v>10.30474439359929</v>
+        <v>10.30474439359926</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>90.70348906056009</v>
+        <v>90.70348906056006</v>
       </c>
       <c r="T14" t="n">
         <v>200.3671241115285</v>
@@ -1704,7 +1704,7 @@
         <v>85.40527162386633</v>
       </c>
       <c r="I15" t="n">
-        <v>3.874398615283113</v>
+        <v>3.874398615283098</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>120.0819989810002</v>
+        <v>120.0819989810001</v>
       </c>
       <c r="T15" t="n">
         <v>188.9672134218847</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>118.3730096870363</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.661950512378</v>
       </c>
       <c r="H16" t="n">
-        <v>141.5199887668301</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>183.4279771466366</v>
       </c>
       <c r="T16" t="n">
-        <v>217.9942843586635</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1919914194319</v>
       </c>
       <c r="V16" t="n">
-        <v>176.6583303977488</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1859,10 +1859,10 @@
         <v>410.1105672232783</v>
       </c>
       <c r="H17" t="n">
-        <v>286.3004881142895</v>
+        <v>286.3004881142894</v>
       </c>
       <c r="I17" t="n">
-        <v>10.30474439359929</v>
+        <v>10.30474439359926</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>90.70348906056009</v>
+        <v>90.70348906056006</v>
       </c>
       <c r="T17" t="n">
-        <v>200.3671241115282</v>
+        <v>200.3671241115285</v>
       </c>
       <c r="U17" t="n">
         <v>250.930279284488</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>85.40527162386633</v>
       </c>
       <c r="I18" t="n">
-        <v>3.874398615283113</v>
+        <v>3.874398615283098</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.0819989810002</v>
+        <v>120.0819989810001</v>
       </c>
       <c r="T18" t="n">
         <v>188.9672134218847</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2020,7 @@
         <v>141.5199887668301</v>
       </c>
       <c r="I19" t="n">
-        <v>85.41022562875519</v>
+        <v>85.41022562875517</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>183.4279771466366</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.9942843586635</v>
+        <v>41.47275490271964</v>
       </c>
       <c r="U19" t="n">
         <v>286.1919914194319</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>24.48053255689393</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,10 +2096,10 @@
         <v>410.1105672232783</v>
       </c>
       <c r="H20" t="n">
-        <v>286.3004881142895</v>
+        <v>286.3004881142894</v>
       </c>
       <c r="I20" t="n">
-        <v>10.30474439359929</v>
+        <v>10.30474439359926</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>90.70348906056009</v>
+        <v>90.70348906056006</v>
       </c>
       <c r="T20" t="n">
         <v>200.3671241115285</v>
@@ -2178,7 +2178,7 @@
         <v>85.40527162386633</v>
       </c>
       <c r="I21" t="n">
-        <v>3.874398615283113</v>
+        <v>3.874398615283098</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>120.0819989810002</v>
+        <v>120.0819989810001</v>
       </c>
       <c r="T21" t="n">
         <v>188.9672134218847</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.661950512378</v>
       </c>
       <c r="H22" t="n">
-        <v>141.5199887668301</v>
+        <v>107.0767916529916</v>
       </c>
       <c r="I22" t="n">
-        <v>85.41022562875519</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>72.57178526157209</v>
       </c>
       <c r="S22" t="n">
         <v>183.4279771466366</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.9942843586635</v>
       </c>
       <c r="U22" t="n">
         <v>286.1919914194319</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>220.649043839861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,10 +2333,10 @@
         <v>410.1105672232783</v>
       </c>
       <c r="H23" t="n">
-        <v>286.3004881142895</v>
+        <v>286.3004881142894</v>
       </c>
       <c r="I23" t="n">
-        <v>10.30474439359929</v>
+        <v>10.30474439359926</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>90.70348906056009</v>
+        <v>90.70348906056006</v>
       </c>
       <c r="T23" t="n">
         <v>200.3671241115285</v>
@@ -2415,7 +2415,7 @@
         <v>85.40527162386633</v>
       </c>
       <c r="I24" t="n">
-        <v>3.874398615283113</v>
+        <v>3.874398615283098</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>120.0819989810002</v>
+        <v>120.0819989810001</v>
       </c>
       <c r="T24" t="n">
         <v>188.9672134218847</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.661950512378</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>141.5199887668301</v>
       </c>
       <c r="I25" t="n">
-        <v>76.33211994217734</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>72.57178526157212</v>
+        <v>72.57178526157209</v>
       </c>
       <c r="S25" t="n">
-        <v>183.4279771466366</v>
+        <v>147.3999094465484</v>
       </c>
       <c r="T25" t="n">
         <v>217.9942843586635</v>
@@ -2533,10 +2533,10 @@
         <v>286.1919914194319</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2570,10 +2570,10 @@
         <v>410.1105672232783</v>
       </c>
       <c r="H26" t="n">
-        <v>286.3004881142895</v>
+        <v>286.3004881142894</v>
       </c>
       <c r="I26" t="n">
-        <v>10.30474439359929</v>
+        <v>10.30474439359926</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>90.70348906056009</v>
+        <v>90.70348906056006</v>
       </c>
       <c r="T26" t="n">
         <v>200.3671241115285</v>
@@ -2652,7 +2652,7 @@
         <v>85.40527162386633</v>
       </c>
       <c r="I27" t="n">
-        <v>3.874398615283113</v>
+        <v>3.874398615283098</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>120.0819989810002</v>
+        <v>120.0819989810001</v>
       </c>
       <c r="T27" t="n">
         <v>188.9672134218847</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>75.28901956529498</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>41.9074685136831</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>141.5199887668301</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.41022562875519</v>
+        <v>85.41022562875517</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>72.57178526157212</v>
+        <v>72.57178526157209</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.4279771466366</v>
       </c>
       <c r="T28" t="n">
         <v>217.9942843586635</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2801,16 +2801,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.1105672232783</v>
       </c>
       <c r="H29" t="n">
-        <v>286.3004881142895</v>
+        <v>286.3004881142894</v>
       </c>
       <c r="I29" t="n">
-        <v>10.30474439359929</v>
+        <v>10.30474439359926</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>90.70348906056009</v>
+        <v>90.70348906056006</v>
       </c>
       <c r="T29" t="n">
         <v>200.3671241115285</v>
@@ -2889,7 +2889,7 @@
         <v>85.40527162386633</v>
       </c>
       <c r="I30" t="n">
-        <v>3.874398615283113</v>
+        <v>3.874398615283098</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>120.0819989810002</v>
+        <v>120.0819989810001</v>
       </c>
       <c r="T30" t="n">
         <v>188.9672134218847</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>84.96286858728871</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2968,7 +2968,7 @@
         <v>141.5199887668301</v>
       </c>
       <c r="I31" t="n">
-        <v>85.41022562875519</v>
+        <v>85.41022562875517</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>72.57178526157209</v>
       </c>
       <c r="S31" t="n">
         <v>183.4279771466366</v>
       </c>
       <c r="T31" t="n">
-        <v>217.9942843586635</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>169.5720247368263</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3044,10 +3044,10 @@
         <v>410.1105672232783</v>
       </c>
       <c r="H32" t="n">
-        <v>286.3004881142895</v>
+        <v>286.3004881142894</v>
       </c>
       <c r="I32" t="n">
-        <v>10.30474439359929</v>
+        <v>10.30474439359926</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>90.70348906056009</v>
+        <v>90.70348906056006</v>
       </c>
       <c r="T32" t="n">
         <v>200.3671241115285</v>
@@ -3086,7 +3086,7 @@
         <v>250.930279284488</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3126,7 @@
         <v>85.40527162386633</v>
       </c>
       <c r="I33" t="n">
-        <v>3.874398615283113</v>
+        <v>3.874398615283098</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>120.0819989810002</v>
+        <v>120.0819989810001</v>
       </c>
       <c r="T33" t="n">
         <v>188.9672134218847</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>126.3047795188003</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>141.5199887668301</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.41022562875519</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>72.57178526157212</v>
+        <v>72.57178526157209</v>
       </c>
       <c r="S34" t="n">
-        <v>126.6268518187661</v>
+        <v>183.4279771466366</v>
       </c>
       <c r="T34" t="n">
         <v>217.9942843586635</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3281,10 +3281,10 @@
         <v>410.1105672232783</v>
       </c>
       <c r="H35" t="n">
-        <v>286.3004881142895</v>
+        <v>286.3004881142894</v>
       </c>
       <c r="I35" t="n">
-        <v>10.30474439359929</v>
+        <v>10.30474439359926</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>90.70348906056009</v>
+        <v>90.70348906056006</v>
       </c>
       <c r="T35" t="n">
         <v>200.3671241115285</v>
@@ -3363,7 +3363,7 @@
         <v>85.40527162386633</v>
       </c>
       <c r="I36" t="n">
-        <v>3.874398615283113</v>
+        <v>3.874398615283098</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>120.0819989810002</v>
+        <v>120.0819989810001</v>
       </c>
       <c r="T36" t="n">
         <v>188.9672134218847</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.661950512378</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>84.67202392116627</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>72.57178526157212</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>183.4279771466366</v>
@@ -3478,13 +3478,13 @@
         <v>217.9942843586635</v>
       </c>
       <c r="U37" t="n">
-        <v>239.3212977213008</v>
+        <v>286.1919914194319</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3518,10 +3518,10 @@
         <v>410.1105672232783</v>
       </c>
       <c r="H38" t="n">
-        <v>286.3004881142895</v>
+        <v>286.3004881142894</v>
       </c>
       <c r="I38" t="n">
-        <v>10.30474439359929</v>
+        <v>10.30474439359926</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>90.70348906056009</v>
+        <v>90.70348906056006</v>
       </c>
       <c r="T38" t="n">
         <v>200.3671241115285</v>
@@ -3600,7 +3600,7 @@
         <v>85.40527162386633</v>
       </c>
       <c r="I39" t="n">
-        <v>3.874398615283113</v>
+        <v>3.874398615283098</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>120.0819989810002</v>
+        <v>120.0819989810001</v>
       </c>
       <c r="T39" t="n">
         <v>188.9672134218847</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>41.9074685136831</v>
       </c>
       <c r="H40" t="n">
-        <v>100.5870578494934</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.41022562875517</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>72.57178526157212</v>
+        <v>72.57178526157209</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>183.4279771466366</v>
       </c>
       <c r="T40" t="n">
         <v>217.9942843586635</v>
@@ -3718,7 +3718,7 @@
         <v>286.1919914194319</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3755,10 +3755,10 @@
         <v>410.1105672232783</v>
       </c>
       <c r="H41" t="n">
-        <v>286.3004881142895</v>
+        <v>286.3004881142894</v>
       </c>
       <c r="I41" t="n">
-        <v>10.30474439359929</v>
+        <v>10.30474439359926</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>90.70348906056009</v>
+        <v>90.70348906056006</v>
       </c>
       <c r="T41" t="n">
         <v>200.3671241115285</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3837,7 @@
         <v>85.40527162386633</v>
       </c>
       <c r="I42" t="n">
-        <v>3.874398615283113</v>
+        <v>3.874398615283098</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>120.0819989810002</v>
+        <v>120.0819989810001</v>
       </c>
       <c r="T42" t="n">
         <v>188.9672134218847</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>105.4919210667417</v>
       </c>
       <c r="I43" t="n">
-        <v>85.41022562875519</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>72.57178526157209</v>
       </c>
       <c r="S43" t="n">
         <v>183.4279771466366</v>
@@ -3955,7 +3955,7 @@
         <v>286.1919914194319</v>
       </c>
       <c r="V43" t="n">
-        <v>71.56746143430179</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3992,10 +3992,10 @@
         <v>410.1105672232783</v>
       </c>
       <c r="H44" t="n">
-        <v>286.3004881142895</v>
+        <v>286.3004881142894</v>
       </c>
       <c r="I44" t="n">
-        <v>10.30474439359929</v>
+        <v>10.30474439359926</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>90.70348906056009</v>
+        <v>90.70348906056006</v>
       </c>
       <c r="T44" t="n">
         <v>200.3671241115285</v>
@@ -4037,7 +4037,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4074,7 @@
         <v>85.40527162386633</v>
       </c>
       <c r="I45" t="n">
-        <v>3.874398615283113</v>
+        <v>3.874398615283098</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>120.0819989810002</v>
+        <v>120.0819989810001</v>
       </c>
       <c r="T45" t="n">
         <v>188.9672134218847</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>24.01963717657078</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.661950512378</v>
       </c>
       <c r="H46" t="n">
         <v>141.5199887668301</v>
       </c>
       <c r="I46" t="n">
-        <v>1.978861423619951</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>72.57178526157212</v>
+        <v>72.57178526157209</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.4279771466366</v>
       </c>
       <c r="T46" t="n">
         <v>217.9942843586635</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.50720837107777</v>
+        <v>843.966258332007</v>
       </c>
       <c r="C2" t="n">
-        <v>47.50720837107777</v>
+        <v>578.0652139363842</v>
       </c>
       <c r="D2" t="n">
-        <v>47.50720837107777</v>
+        <v>572.3637964131199</v>
       </c>
       <c r="E2" t="n">
-        <v>47.50720837107777</v>
+        <v>306.4627520174971</v>
       </c>
       <c r="F2" t="n">
         <v>40.56170762187429</v>
@@ -4337,10 +4337,10 @@
         <v>330.254671414236</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098023</v>
+        <v>563.3128681098021</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369327</v>
+        <v>785.5101925369328</v>
       </c>
       <c r="O2" t="n">
         <v>950.1371873885138</v>
@@ -4352,28 +4352,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R2" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S2" t="n">
-        <v>698.4535282668857</v>
+        <v>843.966258332007</v>
       </c>
       <c r="T2" t="n">
-        <v>698.4535282668857</v>
+        <v>843.966258332007</v>
       </c>
       <c r="U2" t="n">
-        <v>444.5765064295804</v>
+        <v>843.966258332007</v>
       </c>
       <c r="V2" t="n">
-        <v>313.4082527667006</v>
+        <v>843.966258332007</v>
       </c>
       <c r="W2" t="n">
-        <v>47.50720837107777</v>
+        <v>843.966258332007</v>
       </c>
       <c r="X2" t="n">
-        <v>47.50720837107777</v>
+        <v>843.966258332007</v>
       </c>
       <c r="Y2" t="n">
-        <v>47.50720837107777</v>
+        <v>843.966258332007</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>556.2142042406711</v>
+        <v>180.2968177215888</v>
       </c>
       <c r="C3" t="n">
-        <v>381.7611749595441</v>
+        <v>180.2968177215888</v>
       </c>
       <c r="D3" t="n">
-        <v>381.7611749595441</v>
+        <v>180.2968177215888</v>
       </c>
       <c r="E3" t="n">
-        <v>222.5237199540885</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F3" t="n">
-        <v>222.5237199540885</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G3" t="n">
-        <v>222.5237199540885</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H3" t="n">
-        <v>109.6374838154158</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I3" t="n">
         <v>21.05936271613333</v>
@@ -4422,37 +4422,37 @@
         <v>782.8821178352956</v>
       </c>
       <c r="O3" t="n">
-        <v>785.3166962490202</v>
+        <v>1043.295181927788</v>
       </c>
       <c r="P3" t="n">
-        <v>977.3180709271187</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q3" t="n">
         <v>1052.968135806666</v>
       </c>
       <c r="R3" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S3" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T3" t="n">
-        <v>954.9030226480426</v>
+        <v>850.9830782217423</v>
       </c>
       <c r="U3" t="n">
-        <v>954.9030226480426</v>
+        <v>850.9830782217423</v>
       </c>
       <c r="V3" t="n">
-        <v>763.9745030056249</v>
+        <v>850.9830782217423</v>
       </c>
       <c r="W3" t="n">
-        <v>763.9745030056249</v>
+        <v>596.7457214935407</v>
       </c>
       <c r="X3" t="n">
-        <v>763.9745030056249</v>
+        <v>388.8942212880079</v>
       </c>
       <c r="Y3" t="n">
-        <v>556.2142042406711</v>
+        <v>348.5121547416569</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130.0221525919996</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C4" t="n">
-        <v>130.0221525919996</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D4" t="n">
-        <v>130.0221525919996</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E4" t="n">
-        <v>130.0221525919996</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F4" t="n">
-        <v>130.0221525919996</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G4" t="n">
-        <v>130.0221525919996</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H4" t="n">
-        <v>130.0221525919996</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I4" t="n">
-        <v>130.0221525919996</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J4" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K4" t="n">
         <v>21.05936271613333</v>
@@ -4507,31 +4507,31 @@
         <v>182.5089274706534</v>
       </c>
       <c r="Q4" t="n">
-        <v>130.0221525919996</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="R4" t="n">
-        <v>130.0221525919996</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="S4" t="n">
-        <v>130.0221525919996</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="T4" t="n">
-        <v>130.0221525919996</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="U4" t="n">
-        <v>130.0221525919996</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="V4" t="n">
-        <v>130.0221525919996</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="W4" t="n">
-        <v>130.0221525919996</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="X4" t="n">
-        <v>130.0221525919996</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y4" t="n">
-        <v>130.0221525919996</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>251.4724366382861</v>
+        <v>323.2990948046596</v>
       </c>
       <c r="C5" t="n">
-        <v>251.4724366382861</v>
+        <v>44.35312136793684</v>
       </c>
       <c r="D5" t="n">
-        <v>251.4724366382861</v>
+        <v>44.35312136793684</v>
       </c>
       <c r="E5" t="n">
-        <v>251.4724366382861</v>
+        <v>44.35312136793684</v>
       </c>
       <c r="F5" t="n">
-        <v>244.5269358890827</v>
+        <v>37.40762061873336</v>
       </c>
       <c r="G5" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H5" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I5" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J5" t="n">
-        <v>22.09252109618846</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K5" t="n">
         <v>142.8373253438684</v>
@@ -4574,7 +4574,7 @@
         <v>344.9085595412869</v>
       </c>
       <c r="M5" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N5" t="n">
         <v>817.0829279823542</v>
@@ -4592,25 +4592,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S5" t="n">
-        <v>896.7353068029595</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T5" t="n">
-        <v>672.0084928939002</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U5" t="n">
-        <v>418.1353718951009</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V5" t="n">
-        <v>251.4724366382861</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W5" t="n">
-        <v>251.4724366382861</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="X5" t="n">
-        <v>251.4724366382861</v>
+        <v>602.2450682413823</v>
       </c>
       <c r="Y5" t="n">
-        <v>251.4724366382861</v>
+        <v>602.2450682413823</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>651.2519730171373</v>
+        <v>298.5519066866569</v>
       </c>
       <c r="C6" t="n">
-        <v>476.7989437360102</v>
+        <v>298.5519066866569</v>
       </c>
       <c r="D6" t="n">
-        <v>327.864534074759</v>
+        <v>149.6174970254057</v>
       </c>
       <c r="E6" t="n">
-        <v>168.6270790693035</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F6" t="n">
         <v>22.09252109618844</v>
@@ -4647,22 +4647,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K6" t="n">
-        <v>22.09252109618844</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L6" t="n">
-        <v>268.2479876888895</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M6" t="n">
-        <v>541.6429362542214</v>
+        <v>679.042797994484</v>
       </c>
       <c r="N6" t="n">
-        <v>641.2451212288496</v>
+        <v>952.4377465598159</v>
       </c>
       <c r="O6" t="n">
-        <v>907.7419348121334</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="P6" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q6" t="n">
         <v>1104.626054809422</v>
@@ -4674,22 +4674,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T6" t="n">
-        <v>1104.626054809422</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="U6" t="n">
-        <v>1104.626054809422</v>
+        <v>674.5275424716789</v>
       </c>
       <c r="V6" t="n">
-        <v>1104.626054809422</v>
+        <v>674.5275424716789</v>
       </c>
       <c r="W6" t="n">
-        <v>850.3886980812204</v>
+        <v>674.5275424716789</v>
       </c>
       <c r="X6" t="n">
-        <v>850.3886980812204</v>
+        <v>674.5275424716789</v>
       </c>
       <c r="Y6" t="n">
-        <v>819.4673100372054</v>
+        <v>466.767243706725</v>
       </c>
     </row>
     <row r="7">
@@ -4702,28 +4702,28 @@
         <v>198.9927170031359</v>
       </c>
       <c r="C7" t="n">
-        <v>198.9927170031359</v>
+        <v>30.05653407522894</v>
       </c>
       <c r="D7" t="n">
-        <v>198.9927170031359</v>
+        <v>30.05653407522894</v>
       </c>
       <c r="E7" t="n">
-        <v>198.9927170031359</v>
+        <v>30.05653407522894</v>
       </c>
       <c r="F7" t="n">
-        <v>198.9927170031359</v>
+        <v>30.05653407522894</v>
       </c>
       <c r="G7" t="n">
-        <v>29.36865006843007</v>
+        <v>30.05653407522894</v>
       </c>
       <c r="H7" t="n">
-        <v>29.36865006843007</v>
+        <v>30.05653407522894</v>
       </c>
       <c r="I7" t="n">
-        <v>22.09252109618844</v>
+        <v>30.05653407522894</v>
       </c>
       <c r="J7" t="n">
-        <v>22.09252109618844</v>
+        <v>30.05653407522894</v>
       </c>
       <c r="K7" t="n">
         <v>22.09252109618844</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.087414675782</v>
+        <v>1160.852583904131</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>791.8900669637194</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>433.6243683569689</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2322.921668271098</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2322.921668271098</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W8" t="n">
-        <v>1970.153013000984</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="X8" t="n">
-        <v>1596.687254739904</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y8" t="n">
-        <v>1596.687254739904</v>
+        <v>1547.452423968253</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104.5052582912013</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5052582912013</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>104.5052582912013</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>325.2978374347314</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>325.2978374347314</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>325.2978374347314</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y10" t="n">
-        <v>104.5052582912013</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2332.129549525534</v>
       </c>
       <c r="C11" t="n">
-        <v>1963.167032585123</v>
+        <v>1963.167032585122</v>
       </c>
       <c r="D11" t="n">
-        <v>1604.901333978372</v>
+        <v>1604.901333978371</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.113081380128</v>
+        <v>1219.113081380127</v>
       </c>
       <c r="F11" t="n">
-        <v>808.1271765905205</v>
+        <v>808.1271765905196</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8740783851888</v>
+        <v>393.8740783851879</v>
       </c>
       <c r="H11" t="n">
-        <v>104.6816661485328</v>
+        <v>104.6816661485327</v>
       </c>
       <c r="I11" t="n">
-        <v>94.2728334277254</v>
+        <v>94.27283342772539</v>
       </c>
       <c r="J11" t="n">
-        <v>351.3095616216964</v>
+        <v>518.7152106420494</v>
       </c>
       <c r="K11" t="n">
-        <v>787.2795055323085</v>
+        <v>1178.274083919026</v>
       </c>
       <c r="L11" t="n">
-        <v>1365.04053391088</v>
+        <v>1756.035112297598</v>
       </c>
       <c r="M11" t="n">
-        <v>2039.580438058268</v>
+        <v>2430.575016444986</v>
       </c>
       <c r="N11" t="n">
-        <v>2729.648911443352</v>
+        <v>3120.64348983007</v>
       </c>
       <c r="O11" t="n">
-        <v>3744.917921025455</v>
+        <v>3758.920319962056</v>
       </c>
       <c r="P11" t="n">
-        <v>4255.171427627783</v>
+        <v>4269.173826564383</v>
       </c>
       <c r="Q11" t="n">
-        <v>4604.180213397374</v>
+        <v>4604.180213397373</v>
       </c>
       <c r="R11" t="n">
-        <v>4713.64167138627</v>
+        <v>4713.641671386269</v>
       </c>
       <c r="S11" t="n">
-        <v>4622.021985466512</v>
+        <v>4622.021985466511</v>
       </c>
       <c r="T11" t="n">
-        <v>4419.630951010423</v>
+        <v>4419.630951010422</v>
       </c>
       <c r="U11" t="n">
-        <v>4166.166022440233</v>
+        <v>4166.166022440232</v>
       </c>
       <c r="V11" t="n">
-        <v>3835.103135096662</v>
+        <v>3835.103135096661</v>
       </c>
       <c r="W11" t="n">
-        <v>3482.334479826548</v>
+        <v>3482.334479826547</v>
       </c>
       <c r="X11" t="n">
-        <v>3108.868721565468</v>
+        <v>3108.868721565467</v>
       </c>
       <c r="Y11" t="n">
         <v>2718.729389589656</v>
@@ -5112,34 +5112,34 @@
         <v>184.4543185177753</v>
       </c>
       <c r="H12" t="n">
-        <v>98.18636738255682</v>
+        <v>98.1863673825568</v>
       </c>
       <c r="I12" t="n">
-        <v>94.2728334277254</v>
+        <v>94.27283342772539</v>
       </c>
       <c r="J12" t="n">
         <v>228.5443009051909</v>
       </c>
       <c r="K12" t="n">
-        <v>536.190449993787</v>
+        <v>228.5443009051909</v>
       </c>
       <c r="L12" t="n">
-        <v>669.3339816932033</v>
+        <v>688.5350554028487</v>
       </c>
       <c r="M12" t="n">
-        <v>1225.478364002015</v>
+        <v>1071.954956029824</v>
       </c>
       <c r="N12" t="n">
-        <v>1810.750878167032</v>
+        <v>1657.227470194841</v>
       </c>
       <c r="O12" t="n">
-        <v>2323.941091162569</v>
+        <v>2170.417683190378</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.941091162569</v>
+        <v>2562.965006524399</v>
       </c>
       <c r="Q12" t="n">
-        <v>2536.429384717866</v>
+        <v>2562.965006524399</v>
       </c>
       <c r="R12" t="n">
         <v>2562.965006524399</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>597.7560632806615</v>
+        <v>736.6957622094841</v>
       </c>
       <c r="C13" t="n">
-        <v>428.8198803527546</v>
+        <v>567.7595792815772</v>
       </c>
       <c r="D13" t="n">
-        <v>278.7032409404188</v>
+        <v>552.4707141608337</v>
       </c>
       <c r="E13" t="n">
-        <v>278.7032409404188</v>
+        <v>404.5576205784407</v>
       </c>
       <c r="F13" t="n">
-        <v>278.7032409404188</v>
+        <v>404.5576205784407</v>
       </c>
       <c r="G13" t="n">
-        <v>278.7032409404188</v>
+        <v>237.2223170305841</v>
       </c>
       <c r="H13" t="n">
-        <v>180.5457886082862</v>
+        <v>94.27283342772539</v>
       </c>
       <c r="I13" t="n">
-        <v>94.2728334277254</v>
+        <v>94.27283342772539</v>
       </c>
       <c r="J13" t="n">
         <v>164.8629611359539</v>
       </c>
       <c r="K13" t="n">
-        <v>410.7010621045451</v>
+        <v>410.7010621045453</v>
       </c>
       <c r="L13" t="n">
-        <v>780.815626851509</v>
+        <v>780.8156268515093</v>
       </c>
       <c r="M13" t="n">
         <v>1181.438664580475</v>
@@ -5218,31 +5218,31 @@
         <v>2204.389711041874</v>
       </c>
       <c r="Q13" t="n">
-        <v>2312.16345053395</v>
+        <v>2312.163450533948</v>
       </c>
       <c r="R13" t="n">
-        <v>2238.858616936402</v>
+        <v>2238.8586169364</v>
       </c>
       <c r="S13" t="n">
-        <v>2053.5778319398</v>
+        <v>2238.8586169364</v>
       </c>
       <c r="T13" t="n">
-        <v>1833.381585112867</v>
+        <v>2018.662370109467</v>
       </c>
       <c r="U13" t="n">
-        <v>1544.298765497279</v>
+        <v>1729.579550493879</v>
       </c>
       <c r="V13" t="n">
-        <v>1289.614277291392</v>
+        <v>1474.895062287992</v>
       </c>
       <c r="W13" t="n">
-        <v>1000.197107254431</v>
+        <v>1185.477892251032</v>
       </c>
       <c r="X13" t="n">
-        <v>1000.197107254431</v>
+        <v>957.4883413530142</v>
       </c>
       <c r="Y13" t="n">
-        <v>779.4045281109012</v>
+        <v>736.6957622094841</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2332.129549525534</v>
       </c>
       <c r="C14" t="n">
-        <v>1963.167032585123</v>
+        <v>1963.167032585122</v>
       </c>
       <c r="D14" t="n">
         <v>1604.901333978372</v>
       </c>
       <c r="E14" t="n">
-        <v>1219.113081380128</v>
+        <v>1219.113081380127</v>
       </c>
       <c r="F14" t="n">
-        <v>808.1271765905203</v>
+        <v>808.1271765905198</v>
       </c>
       <c r="G14" t="n">
-        <v>393.8740783851887</v>
+        <v>393.8740783851881</v>
       </c>
       <c r="H14" t="n">
-        <v>104.6816661485328</v>
+        <v>104.6816661485327</v>
       </c>
       <c r="I14" t="n">
-        <v>94.2728334277254</v>
+        <v>94.27283342772539</v>
       </c>
       <c r="J14" t="n">
-        <v>351.3095616216964</v>
+        <v>351.3095616216965</v>
       </c>
       <c r="K14" t="n">
-        <v>787.2795055323085</v>
+        <v>787.2795055323088</v>
       </c>
       <c r="L14" t="n">
-        <v>1365.04053391088</v>
+        <v>1365.040533910881</v>
       </c>
       <c r="M14" t="n">
-        <v>2039.580438058268</v>
+        <v>2039.580438058269</v>
       </c>
       <c r="N14" t="n">
-        <v>2729.648911443352</v>
+        <v>2729.648911443353</v>
       </c>
       <c r="O14" t="n">
-        <v>3548.728479208751</v>
+        <v>3367.925741575338</v>
       </c>
       <c r="P14" t="n">
-        <v>4058.981985811078</v>
+        <v>4196.759969267433</v>
       </c>
       <c r="Q14" t="n">
-        <v>4604.180213397374</v>
+        <v>4604.180213397373</v>
       </c>
       <c r="R14" t="n">
-        <v>4713.64167138627</v>
+        <v>4713.641671386269</v>
       </c>
       <c r="S14" t="n">
-        <v>4622.021985466512</v>
+        <v>4622.021985466511</v>
       </c>
       <c r="T14" t="n">
-        <v>4419.630951010423</v>
+        <v>4419.630951010422</v>
       </c>
       <c r="U14" t="n">
-        <v>4166.166022440233</v>
+        <v>4166.166022440232</v>
       </c>
       <c r="V14" t="n">
-        <v>3835.103135096662</v>
+        <v>3835.103135096661</v>
       </c>
       <c r="W14" t="n">
-        <v>3482.334479826548</v>
+        <v>3482.334479826547</v>
       </c>
       <c r="X14" t="n">
-        <v>3108.868721565468</v>
+        <v>3108.868721565467</v>
       </c>
       <c r="Y14" t="n">
         <v>2718.729389589656</v>
@@ -5349,34 +5349,34 @@
         <v>184.4543185177753</v>
       </c>
       <c r="H15" t="n">
-        <v>98.18636738255682</v>
+        <v>98.1863673825568</v>
       </c>
       <c r="I15" t="n">
-        <v>94.2728334277254</v>
+        <v>94.27283342772539</v>
       </c>
       <c r="J15" t="n">
         <v>228.5443009051909</v>
       </c>
       <c r="K15" t="n">
-        <v>276.7866583591831</v>
+        <v>536.1904499937871</v>
       </c>
       <c r="L15" t="n">
-        <v>276.7866583591831</v>
+        <v>536.1904499937871</v>
       </c>
       <c r="M15" t="n">
-        <v>832.9310406679953</v>
+        <v>1071.954956029824</v>
       </c>
       <c r="N15" t="n">
-        <v>1418.203554833012</v>
+        <v>1657.227470194841</v>
       </c>
       <c r="O15" t="n">
-        <v>1931.393767828549</v>
+        <v>2170.417683190378</v>
       </c>
       <c r="P15" t="n">
-        <v>2323.941091162569</v>
+        <v>2562.965006524399</v>
       </c>
       <c r="Q15" t="n">
-        <v>2536.429384717866</v>
+        <v>2562.965006524399</v>
       </c>
       <c r="R15" t="n">
         <v>2562.965006524399</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>700.9615410387945</v>
+        <v>725.3473609837923</v>
       </c>
       <c r="C16" t="n">
-        <v>532.0253581108876</v>
+        <v>556.4111780558854</v>
       </c>
       <c r="D16" t="n">
-        <v>532.0253581108876</v>
+        <v>556.4111780558854</v>
       </c>
       <c r="E16" t="n">
-        <v>384.1122645284945</v>
+        <v>408.4980844734923</v>
       </c>
       <c r="F16" t="n">
-        <v>237.2223170305841</v>
+        <v>261.6081369755819</v>
       </c>
       <c r="G16" t="n">
-        <v>237.2223170305841</v>
+        <v>94.27283342772539</v>
       </c>
       <c r="H16" t="n">
-        <v>94.2728334277254</v>
+        <v>94.27283342772539</v>
       </c>
       <c r="I16" t="n">
-        <v>94.2728334277254</v>
+        <v>94.27283342772539</v>
       </c>
       <c r="J16" t="n">
         <v>164.8629611359539</v>
       </c>
       <c r="K16" t="n">
-        <v>410.7010621045451</v>
+        <v>410.7010621045453</v>
       </c>
       <c r="L16" t="n">
-        <v>780.815626851509</v>
+        <v>780.8156268515093</v>
       </c>
       <c r="M16" t="n">
         <v>1181.438664580475</v>
@@ -5464,22 +5464,22 @@
         <v>2126.882665537347</v>
       </c>
       <c r="T16" t="n">
-        <v>1906.686418710415</v>
+        <v>2126.882665537347</v>
       </c>
       <c r="U16" t="n">
-        <v>1617.603599094827</v>
+        <v>1837.799845921759</v>
       </c>
       <c r="V16" t="n">
-        <v>1439.160841117303</v>
+        <v>1583.115357715873</v>
       </c>
       <c r="W16" t="n">
-        <v>1149.743671080342</v>
+        <v>1293.698187678912</v>
       </c>
       <c r="X16" t="n">
-        <v>921.7541201823246</v>
+        <v>1065.708636780894</v>
       </c>
       <c r="Y16" t="n">
-        <v>700.9615410387945</v>
+        <v>844.9160576373644</v>
       </c>
     </row>
     <row r="17">
@@ -5501,61 +5501,61 @@
         <v>1219.113081380128</v>
       </c>
       <c r="F17" t="n">
-        <v>808.1271765905205</v>
+        <v>808.1271765905203</v>
       </c>
       <c r="G17" t="n">
-        <v>393.8740783851888</v>
+        <v>393.8740783851887</v>
       </c>
       <c r="H17" t="n">
-        <v>104.6816661485328</v>
+        <v>104.6816661485327</v>
       </c>
       <c r="I17" t="n">
-        <v>94.2728334277254</v>
+        <v>94.27283342772539</v>
       </c>
       <c r="J17" t="n">
-        <v>351.3095616216964</v>
+        <v>351.3095616216965</v>
       </c>
       <c r="K17" t="n">
-        <v>859.69336282926</v>
+        <v>787.2795055323088</v>
       </c>
       <c r="L17" t="n">
-        <v>1437.454391207832</v>
+        <v>1365.040533910881</v>
       </c>
       <c r="M17" t="n">
-        <v>2111.99429535522</v>
+        <v>2039.580438058269</v>
       </c>
       <c r="N17" t="n">
-        <v>2802.062768740304</v>
+        <v>2729.648911443353</v>
       </c>
       <c r="O17" t="n">
-        <v>3440.339598872289</v>
+        <v>3367.925741575338</v>
       </c>
       <c r="P17" t="n">
-        <v>4269.173826564383</v>
+        <v>4196.759969267433</v>
       </c>
       <c r="Q17" t="n">
-        <v>4604.180213397374</v>
+        <v>4604.180213397373</v>
       </c>
       <c r="R17" t="n">
-        <v>4713.64167138627</v>
+        <v>4713.641671386269</v>
       </c>
       <c r="S17" t="n">
-        <v>4622.021985466512</v>
+        <v>4622.021985466511</v>
       </c>
       <c r="T17" t="n">
-        <v>4419.630951010423</v>
+        <v>4419.630951010422</v>
       </c>
       <c r="U17" t="n">
-        <v>4166.166022440233</v>
+        <v>4166.166022440232</v>
       </c>
       <c r="V17" t="n">
-        <v>3835.103135096662</v>
+        <v>3835.103135096661</v>
       </c>
       <c r="W17" t="n">
-        <v>3482.334479826548</v>
+        <v>3482.334479826547</v>
       </c>
       <c r="X17" t="n">
-        <v>3108.868721565468</v>
+        <v>3108.868721565467</v>
       </c>
       <c r="Y17" t="n">
         <v>2718.729389589656</v>
@@ -5586,34 +5586,34 @@
         <v>184.4543185177753</v>
       </c>
       <c r="H18" t="n">
-        <v>98.18636738255682</v>
+        <v>98.1863673825568</v>
       </c>
       <c r="I18" t="n">
-        <v>94.2728334277254</v>
+        <v>94.27283342772539</v>
       </c>
       <c r="J18" t="n">
-        <v>94.2728334277254</v>
+        <v>94.42226893794464</v>
       </c>
       <c r="K18" t="n">
-        <v>94.2728334277254</v>
+        <v>402.0684180265408</v>
       </c>
       <c r="L18" t="n">
-        <v>554.263587925383</v>
+        <v>862.0591725241985</v>
       </c>
       <c r="M18" t="n">
-        <v>1110.407970234195</v>
+        <v>1418.203554833011</v>
       </c>
       <c r="N18" t="n">
-        <v>1695.680484399211</v>
+        <v>1418.203554833011</v>
       </c>
       <c r="O18" t="n">
-        <v>2170.417683190379</v>
+        <v>1931.393767828548</v>
       </c>
       <c r="P18" t="n">
-        <v>2562.965006524399</v>
+        <v>2323.941091162569</v>
       </c>
       <c r="Q18" t="n">
-        <v>2562.965006524399</v>
+        <v>2536.429384717865</v>
       </c>
       <c r="R18" t="n">
         <v>2562.965006524399</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>935.7502562516407</v>
+        <v>806.6567061848186</v>
       </c>
       <c r="C19" t="n">
-        <v>935.7502562516407</v>
+        <v>637.7205232569117</v>
       </c>
       <c r="D19" t="n">
-        <v>785.633616839305</v>
+        <v>637.7205232569117</v>
       </c>
       <c r="E19" t="n">
-        <v>637.7205232569119</v>
+        <v>637.7205232569117</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8305757590015</v>
+        <v>490.8305757590014</v>
       </c>
       <c r="G19" t="n">
         <v>323.4952722111449</v>
@@ -5668,16 +5668,16 @@
         <v>180.5457886082862</v>
       </c>
       <c r="I19" t="n">
-        <v>94.2728334277254</v>
+        <v>94.27283342772539</v>
       </c>
       <c r="J19" t="n">
         <v>164.8629611359539</v>
       </c>
       <c r="K19" t="n">
-        <v>410.7010621045451</v>
+        <v>410.7010621045453</v>
       </c>
       <c r="L19" t="n">
-        <v>780.815626851509</v>
+        <v>780.8156268515093</v>
       </c>
       <c r="M19" t="n">
         <v>1181.438664580475</v>
@@ -5698,25 +5698,25 @@
         <v>2312.16345053395</v>
       </c>
       <c r="S19" t="n">
-        <v>2126.882665537347</v>
+        <v>2312.16345053395</v>
       </c>
       <c r="T19" t="n">
-        <v>1906.686418710415</v>
+        <v>2270.271778915041</v>
       </c>
       <c r="U19" t="n">
-        <v>1617.603599094827</v>
+        <v>1981.188959299453</v>
       </c>
       <c r="V19" t="n">
-        <v>1362.91911088894</v>
+        <v>1726.504471093567</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.19130022541</v>
+        <v>1437.087301056606</v>
       </c>
       <c r="X19" t="n">
-        <v>1338.19130022541</v>
+        <v>1209.097750158588</v>
       </c>
       <c r="Y19" t="n">
-        <v>1117.39872108188</v>
+        <v>988.3051710150584</v>
       </c>
     </row>
     <row r="20">
@@ -5732,55 +5732,55 @@
         <v>1963.167032585122</v>
       </c>
       <c r="D20" t="n">
-        <v>1604.901333978371</v>
+        <v>1604.901333978372</v>
       </c>
       <c r="E20" t="n">
-        <v>1219.113081380127</v>
+        <v>1219.113081380128</v>
       </c>
       <c r="F20" t="n">
-        <v>808.1271765905194</v>
+        <v>808.1271765905203</v>
       </c>
       <c r="G20" t="n">
         <v>393.8740783851887</v>
       </c>
       <c r="H20" t="n">
-        <v>104.6816661485328</v>
+        <v>104.6816661485327</v>
       </c>
       <c r="I20" t="n">
-        <v>94.2728334277254</v>
+        <v>94.27283342772539</v>
       </c>
       <c r="J20" t="n">
-        <v>351.3095616216964</v>
+        <v>351.3095616216965</v>
       </c>
       <c r="K20" t="n">
-        <v>787.2795055323085</v>
+        <v>1108.183463977762</v>
       </c>
       <c r="L20" t="n">
-        <v>1379.042932847481</v>
+        <v>1685.944492356334</v>
       </c>
       <c r="M20" t="n">
-        <v>2053.582836994869</v>
+        <v>2360.484396503722</v>
       </c>
       <c r="N20" t="n">
-        <v>2743.651310379953</v>
+        <v>3050.552869888806</v>
       </c>
       <c r="O20" t="n">
-        <v>3758.920319962057</v>
+        <v>3758.920319962056</v>
       </c>
       <c r="P20" t="n">
         <v>4269.173826564383</v>
       </c>
       <c r="Q20" t="n">
-        <v>4604.180213397374</v>
+        <v>4604.180213397373</v>
       </c>
       <c r="R20" t="n">
-        <v>4713.64167138627</v>
+        <v>4713.641671386269</v>
       </c>
       <c r="S20" t="n">
-        <v>4622.021985466512</v>
+        <v>4622.021985466511</v>
       </c>
       <c r="T20" t="n">
-        <v>4419.630951010423</v>
+        <v>4419.630951010422</v>
       </c>
       <c r="U20" t="n">
         <v>4166.166022440232</v>
@@ -5823,28 +5823,28 @@
         <v>184.4543185177753</v>
       </c>
       <c r="H21" t="n">
-        <v>98.18636738255682</v>
+        <v>98.1863673825568</v>
       </c>
       <c r="I21" t="n">
-        <v>94.2728334277254</v>
+        <v>94.27283342772539</v>
       </c>
       <c r="J21" t="n">
-        <v>94.2728334277254</v>
+        <v>228.5443009051909</v>
       </c>
       <c r="K21" t="n">
-        <v>401.9189825163215</v>
+        <v>536.1904499937871</v>
       </c>
       <c r="L21" t="n">
-        <v>861.9097370139791</v>
+        <v>996.1812044914448</v>
       </c>
       <c r="M21" t="n">
-        <v>1418.054119322791</v>
+        <v>1464.502279363845</v>
       </c>
       <c r="N21" t="n">
-        <v>2003.326633487808</v>
+        <v>2049.774793528861</v>
       </c>
       <c r="O21" t="n">
-        <v>2170.417683190379</v>
+        <v>2562.965006524399</v>
       </c>
       <c r="P21" t="n">
         <v>2562.965006524399</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>957.7964916816372</v>
+        <v>369.7665123826441</v>
       </c>
       <c r="C22" t="n">
-        <v>788.8603087537304</v>
+        <v>369.7665123826441</v>
       </c>
       <c r="D22" t="n">
-        <v>638.7436693413946</v>
+        <v>369.7665123826441</v>
       </c>
       <c r="E22" t="n">
-        <v>490.8305757590015</v>
+        <v>369.7665123826441</v>
       </c>
       <c r="F22" t="n">
-        <v>490.8305757590015</v>
+        <v>369.7665123826441</v>
       </c>
       <c r="G22" t="n">
-        <v>323.4952722111449</v>
+        <v>202.4312088347876</v>
       </c>
       <c r="H22" t="n">
-        <v>180.5457886082862</v>
+        <v>94.27283342772539</v>
       </c>
       <c r="I22" t="n">
-        <v>94.2728334277254</v>
+        <v>94.27283342772539</v>
       </c>
       <c r="J22" t="n">
         <v>164.8629611359539</v>
       </c>
       <c r="K22" t="n">
-        <v>410.7010621045451</v>
+        <v>410.7010621045453</v>
       </c>
       <c r="L22" t="n">
-        <v>780.815626851509</v>
+        <v>780.8156268515093</v>
       </c>
       <c r="M22" t="n">
         <v>1181.438664580475</v>
@@ -5932,28 +5932,28 @@
         <v>2312.16345053395</v>
       </c>
       <c r="R22" t="n">
-        <v>2312.16345053395</v>
+        <v>2238.858616936402</v>
       </c>
       <c r="S22" t="n">
-        <v>2126.882665537347</v>
+        <v>2053.5778319398</v>
       </c>
       <c r="T22" t="n">
-        <v>2126.882665537347</v>
+        <v>1833.381585112867</v>
       </c>
       <c r="U22" t="n">
-        <v>1837.799845921759</v>
+        <v>1544.298765497279</v>
       </c>
       <c r="V22" t="n">
-        <v>1583.115357715873</v>
+        <v>1289.614277291392</v>
       </c>
       <c r="W22" t="n">
-        <v>1360.237535655407</v>
+        <v>1000.197107254431</v>
       </c>
       <c r="X22" t="n">
-        <v>1360.237535655407</v>
+        <v>772.207556356414</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.444956511877</v>
+        <v>551.4149772128839</v>
       </c>
     </row>
     <row r="23">
@@ -5969,43 +5969,43 @@
         <v>1963.167032585123</v>
       </c>
       <c r="D23" t="n">
-        <v>1604.901333978372</v>
+        <v>1604.901333978373</v>
       </c>
       <c r="E23" t="n">
-        <v>1219.113081380128</v>
+        <v>1219.113081380129</v>
       </c>
       <c r="F23" t="n">
-        <v>808.1271765905205</v>
+        <v>808.1271765905212</v>
       </c>
       <c r="G23" t="n">
-        <v>393.8740783851889</v>
+        <v>393.8740783851887</v>
       </c>
       <c r="H23" t="n">
-        <v>104.6816661485328</v>
+        <v>104.6816661485327</v>
       </c>
       <c r="I23" t="n">
         <v>94.2728334277254</v>
       </c>
       <c r="J23" t="n">
-        <v>351.3095616216964</v>
+        <v>351.3095616216965</v>
       </c>
       <c r="K23" t="n">
-        <v>968.0822431657216</v>
+        <v>859.6933628292595</v>
       </c>
       <c r="L23" t="n">
-        <v>1545.843271544293</v>
+        <v>1437.454391207832</v>
       </c>
       <c r="M23" t="n">
-        <v>2220.383175691682</v>
+        <v>2111.99429535522</v>
       </c>
       <c r="N23" t="n">
-        <v>2910.451649076766</v>
+        <v>2802.062768740303</v>
       </c>
       <c r="O23" t="n">
-        <v>3548.728479208751</v>
+        <v>3440.339598872289</v>
       </c>
       <c r="P23" t="n">
-        <v>4058.981985811078</v>
+        <v>4269.173826564383</v>
       </c>
       <c r="Q23" t="n">
         <v>4604.180213397374</v>
@@ -6060,34 +6060,34 @@
         <v>184.4543185177753</v>
       </c>
       <c r="H24" t="n">
-        <v>98.18636738255682</v>
+        <v>98.18636738255681</v>
       </c>
       <c r="I24" t="n">
         <v>94.2728334277254</v>
       </c>
       <c r="J24" t="n">
-        <v>228.5443009051909</v>
+        <v>228.544300905191</v>
       </c>
       <c r="K24" t="n">
-        <v>372.9402861703376</v>
+        <v>536.1904499937871</v>
       </c>
       <c r="L24" t="n">
-        <v>832.9310406679953</v>
+        <v>996.1812044914448</v>
       </c>
       <c r="M24" t="n">
-        <v>832.9310406679953</v>
+        <v>1552.325586800257</v>
       </c>
       <c r="N24" t="n">
-        <v>1418.203554833012</v>
+        <v>2137.598100965273</v>
       </c>
       <c r="O24" t="n">
-        <v>1931.393767828549</v>
+        <v>2562.965006524399</v>
       </c>
       <c r="P24" t="n">
-        <v>2323.941091162569</v>
+        <v>2562.965006524399</v>
       </c>
       <c r="Q24" t="n">
-        <v>2536.429384717866</v>
+        <v>2562.965006524399</v>
       </c>
       <c r="R24" t="n">
         <v>2562.965006524399</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1095.516635455732</v>
+        <v>406.158499958491</v>
       </c>
       <c r="C25" t="n">
-        <v>926.5804525278247</v>
+        <v>237.2223170305841</v>
       </c>
       <c r="D25" t="n">
-        <v>776.463813115489</v>
+        <v>237.2223170305841</v>
       </c>
       <c r="E25" t="n">
-        <v>628.5507195330958</v>
+        <v>237.2223170305841</v>
       </c>
       <c r="F25" t="n">
-        <v>481.6607720351855</v>
+        <v>237.2223170305841</v>
       </c>
       <c r="G25" t="n">
-        <v>314.3254684873289</v>
+        <v>237.2223170305841</v>
       </c>
       <c r="H25" t="n">
-        <v>171.3759848844702</v>
+        <v>94.2728334277254</v>
       </c>
       <c r="I25" t="n">
         <v>94.2728334277254</v>
@@ -6148,10 +6148,10 @@
         <v>164.8629611359539</v>
       </c>
       <c r="K25" t="n">
-        <v>410.7010621045451</v>
+        <v>410.7010621045453</v>
       </c>
       <c r="L25" t="n">
-        <v>780.815626851509</v>
+        <v>780.8156268515093</v>
       </c>
       <c r="M25" t="n">
         <v>1181.438664580475</v>
@@ -6172,25 +6172,25 @@
         <v>2238.858616936402</v>
       </c>
       <c r="S25" t="n">
-        <v>2053.5778319398</v>
+        <v>2089.969819515646</v>
       </c>
       <c r="T25" t="n">
-        <v>1833.381585112867</v>
+        <v>1869.773572688714</v>
       </c>
       <c r="U25" t="n">
-        <v>1544.298765497279</v>
+        <v>1580.690753073126</v>
       </c>
       <c r="V25" t="n">
-        <v>1544.298765497279</v>
+        <v>1326.006264867239</v>
       </c>
       <c r="W25" t="n">
-        <v>1544.298765497279</v>
+        <v>1036.589094830278</v>
       </c>
       <c r="X25" t="n">
-        <v>1316.309214599262</v>
+        <v>808.5995439322609</v>
       </c>
       <c r="Y25" t="n">
-        <v>1095.516635455732</v>
+        <v>587.8069647887307</v>
       </c>
     </row>
     <row r="26">
@@ -6203,43 +6203,43 @@
         <v>2332.129549525534</v>
       </c>
       <c r="C26" t="n">
-        <v>1963.167032585122</v>
+        <v>1963.167032585123</v>
       </c>
       <c r="D26" t="n">
-        <v>1604.901333978372</v>
+        <v>1604.901333978373</v>
       </c>
       <c r="E26" t="n">
-        <v>1219.113081380128</v>
+        <v>1219.113081380129</v>
       </c>
       <c r="F26" t="n">
-        <v>808.1271765905203</v>
+        <v>808.1271765905212</v>
       </c>
       <c r="G26" t="n">
-        <v>393.874078385189</v>
+        <v>393.8740783851887</v>
       </c>
       <c r="H26" t="n">
-        <v>104.6816661485328</v>
+        <v>104.6816661485327</v>
       </c>
       <c r="I26" t="n">
         <v>94.2728334277254</v>
       </c>
       <c r="J26" t="n">
-        <v>518.7152106420494</v>
+        <v>351.3095616216965</v>
       </c>
       <c r="K26" t="n">
-        <v>954.6851545526615</v>
+        <v>787.2795055323088</v>
       </c>
       <c r="L26" t="n">
-        <v>1532.446182931233</v>
+        <v>1365.040533910881</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.986087078621</v>
+        <v>2039.580438058269</v>
       </c>
       <c r="N26" t="n">
-        <v>2897.054560463705</v>
+        <v>2729.648911443353</v>
       </c>
       <c r="O26" t="n">
-        <v>3535.33139059569</v>
+        <v>3440.339598872289</v>
       </c>
       <c r="P26" t="n">
         <v>4269.173826564383</v>
@@ -6254,19 +6254,19 @@
         <v>4622.021985466512</v>
       </c>
       <c r="T26" t="n">
-        <v>4419.630951010422</v>
+        <v>4419.630951010423</v>
       </c>
       <c r="U26" t="n">
-        <v>4166.166022440232</v>
+        <v>4166.166022440233</v>
       </c>
       <c r="V26" t="n">
-        <v>3835.103135096661</v>
+        <v>3835.103135096662</v>
       </c>
       <c r="W26" t="n">
-        <v>3482.334479826547</v>
+        <v>3482.334479826548</v>
       </c>
       <c r="X26" t="n">
-        <v>3108.868721565467</v>
+        <v>3108.868721565468</v>
       </c>
       <c r="Y26" t="n">
         <v>2718.729389589656</v>
@@ -6297,34 +6297,34 @@
         <v>184.4543185177753</v>
       </c>
       <c r="H27" t="n">
-        <v>98.18636738255682</v>
+        <v>98.18636738255681</v>
       </c>
       <c r="I27" t="n">
         <v>94.2728334277254</v>
       </c>
       <c r="J27" t="n">
-        <v>228.5443009051909</v>
+        <v>228.544300905191</v>
       </c>
       <c r="K27" t="n">
-        <v>536.190449993787</v>
+        <v>536.1904499937871</v>
       </c>
       <c r="L27" t="n">
-        <v>996.1812044914445</v>
+        <v>996.1812044914448</v>
       </c>
       <c r="M27" t="n">
         <v>1552.325586800257</v>
       </c>
       <c r="N27" t="n">
-        <v>1810.750878167032</v>
+        <v>2049.774793528861</v>
       </c>
       <c r="O27" t="n">
-        <v>2323.941091162569</v>
+        <v>2562.965006524399</v>
       </c>
       <c r="P27" t="n">
-        <v>2323.941091162569</v>
+        <v>2562.965006524399</v>
       </c>
       <c r="Q27" t="n">
-        <v>2536.429384717866</v>
+        <v>2562.965006524399</v>
       </c>
       <c r="R27" t="n">
         <v>2562.965006524399</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>844.4644674162033</v>
+        <v>369.7665123826441</v>
       </c>
       <c r="C28" t="n">
-        <v>768.4149527037841</v>
+        <v>369.7665123826441</v>
       </c>
       <c r="D28" t="n">
-        <v>618.2983132914484</v>
+        <v>369.7665123826441</v>
       </c>
       <c r="E28" t="n">
-        <v>470.3852197090553</v>
+        <v>327.4357361061965</v>
       </c>
       <c r="F28" t="n">
-        <v>323.4952722111449</v>
+        <v>180.5457886082862</v>
       </c>
       <c r="G28" t="n">
-        <v>323.4952722111449</v>
+        <v>180.5457886082862</v>
       </c>
       <c r="H28" t="n">
         <v>180.5457886082862</v>
@@ -6385,49 +6385,49 @@
         <v>164.8629611359539</v>
       </c>
       <c r="K28" t="n">
-        <v>410.7010621045451</v>
+        <v>410.7010621045453</v>
       </c>
       <c r="L28" t="n">
-        <v>780.815626851509</v>
+        <v>780.8156268515093</v>
       </c>
       <c r="M28" t="n">
-        <v>1181.438664580471</v>
+        <v>1181.438664580475</v>
       </c>
       <c r="N28" t="n">
-        <v>1577.970398330613</v>
+        <v>1577.970398330617</v>
       </c>
       <c r="O28" t="n">
-        <v>1928.215339455293</v>
+        <v>1928.215339455297</v>
       </c>
       <c r="P28" t="n">
-        <v>2204.38971104187</v>
+        <v>2204.389711041874</v>
       </c>
       <c r="Q28" t="n">
-        <v>2312.163450533946</v>
+        <v>2312.16345053395</v>
       </c>
       <c r="R28" t="n">
-        <v>2238.858616936398</v>
+        <v>2238.858616936402</v>
       </c>
       <c r="S28" t="n">
-        <v>2238.858616936398</v>
+        <v>2053.5778319398</v>
       </c>
       <c r="T28" t="n">
-        <v>2018.662370109465</v>
+        <v>1833.381585112867</v>
       </c>
       <c r="U28" t="n">
-        <v>1729.579550493877</v>
+        <v>1544.298765497279</v>
       </c>
       <c r="V28" t="n">
-        <v>1474.89506228799</v>
+        <v>1289.614277291392</v>
       </c>
       <c r="W28" t="n">
-        <v>1474.89506228799</v>
+        <v>1000.197107254431</v>
       </c>
       <c r="X28" t="n">
-        <v>1246.905511389973</v>
+        <v>772.207556356414</v>
       </c>
       <c r="Y28" t="n">
-        <v>1026.112932246443</v>
+        <v>551.4149772128839</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2332.129549525535</v>
+        <v>2332.129549525534</v>
       </c>
       <c r="C29" t="n">
         <v>1963.167032585123</v>
@@ -6449,28 +6449,28 @@
         <v>1219.113081380129</v>
       </c>
       <c r="F29" t="n">
-        <v>808.1271765905201</v>
+        <v>808.1271765905212</v>
       </c>
       <c r="G29" t="n">
         <v>393.8740783851887</v>
       </c>
       <c r="H29" t="n">
-        <v>104.6816661485328</v>
+        <v>104.6816661485327</v>
       </c>
       <c r="I29" t="n">
         <v>94.2728334277254</v>
       </c>
       <c r="J29" t="n">
-        <v>351.3095616216964</v>
+        <v>351.3095616216965</v>
       </c>
       <c r="K29" t="n">
-        <v>787.2795055323085</v>
+        <v>787.2795055323088</v>
       </c>
       <c r="L29" t="n">
-        <v>1756.035112297599</v>
+        <v>1365.040533910881</v>
       </c>
       <c r="M29" t="n">
-        <v>2430.575016444987</v>
+        <v>2039.580438058269</v>
       </c>
       <c r="N29" t="n">
         <v>3120.643489830071</v>
@@ -6534,31 +6534,31 @@
         <v>184.4543185177753</v>
       </c>
       <c r="H30" t="n">
-        <v>98.18636738255682</v>
+        <v>98.18636738255681</v>
       </c>
       <c r="I30" t="n">
         <v>94.2728334277254</v>
       </c>
       <c r="J30" t="n">
-        <v>94.2728334277254</v>
+        <v>228.544300905191</v>
       </c>
       <c r="K30" t="n">
-        <v>94.2728334277254</v>
+        <v>536.1904499937871</v>
       </c>
       <c r="L30" t="n">
-        <v>554.263587925383</v>
+        <v>996.1812044914448</v>
       </c>
       <c r="M30" t="n">
-        <v>1110.407970234195</v>
+        <v>1464.502279363845</v>
       </c>
       <c r="N30" t="n">
-        <v>1695.680484399211</v>
+        <v>2049.774793528861</v>
       </c>
       <c r="O30" t="n">
-        <v>2208.870697394749</v>
+        <v>2562.965006524399</v>
       </c>
       <c r="P30" t="n">
-        <v>2350.476712969102</v>
+        <v>2562.965006524399</v>
       </c>
       <c r="Q30" t="n">
         <v>2562.965006524399</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1021.57133563274</v>
+        <v>935.7502562516406</v>
       </c>
       <c r="C31" t="n">
-        <v>935.7502562516407</v>
+        <v>935.7502562516406</v>
       </c>
       <c r="D31" t="n">
-        <v>785.633616839305</v>
+        <v>785.6336168393049</v>
       </c>
       <c r="E31" t="n">
-        <v>637.7205232569119</v>
+        <v>637.7205232569117</v>
       </c>
       <c r="F31" t="n">
-        <v>490.8305757590015</v>
+        <v>490.8305757590014</v>
       </c>
       <c r="G31" t="n">
         <v>323.4952722111449</v>
@@ -6622,10 +6622,10 @@
         <v>164.8629611359539</v>
       </c>
       <c r="K31" t="n">
-        <v>410.7010621045451</v>
+        <v>410.7010621045453</v>
       </c>
       <c r="L31" t="n">
-        <v>780.815626851509</v>
+        <v>780.8156268515093</v>
       </c>
       <c r="M31" t="n">
         <v>1181.438664580475</v>
@@ -6643,28 +6643,28 @@
         <v>2312.16345053395</v>
       </c>
       <c r="R31" t="n">
-        <v>2312.16345053395</v>
+        <v>2238.858616936402</v>
       </c>
       <c r="S31" t="n">
-        <v>2126.882665537347</v>
+        <v>2053.5778319398</v>
       </c>
       <c r="T31" t="n">
-        <v>1906.686418710415</v>
+        <v>2053.5778319398</v>
       </c>
       <c r="U31" t="n">
-        <v>1906.686418710415</v>
+        <v>1882.292958468258</v>
       </c>
       <c r="V31" t="n">
-        <v>1652.001930504528</v>
+        <v>1627.608470262371</v>
       </c>
       <c r="W31" t="n">
-        <v>1652.001930504528</v>
+        <v>1338.19130022541</v>
       </c>
       <c r="X31" t="n">
-        <v>1424.01237960651</v>
+        <v>1338.19130022541</v>
       </c>
       <c r="Y31" t="n">
-        <v>1203.21980046298</v>
+        <v>1117.39872108188</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2332.129549525534</v>
       </c>
       <c r="C32" t="n">
-        <v>1963.167032585123</v>
+        <v>1963.167032585122</v>
       </c>
       <c r="D32" t="n">
         <v>1604.901333978372</v>
@@ -6686,61 +6686,61 @@
         <v>1219.113081380128</v>
       </c>
       <c r="F32" t="n">
-        <v>808.1271765905205</v>
+        <v>808.1271765905201</v>
       </c>
       <c r="G32" t="n">
-        <v>393.8740783851889</v>
+        <v>393.8740783851887</v>
       </c>
       <c r="H32" t="n">
-        <v>104.6816661485328</v>
+        <v>104.6816661485327</v>
       </c>
       <c r="I32" t="n">
-        <v>94.27283342772542</v>
+        <v>94.2728334277254</v>
       </c>
       <c r="J32" t="n">
-        <v>351.3095616216964</v>
+        <v>351.3095616216965</v>
       </c>
       <c r="K32" t="n">
-        <v>787.2795055323085</v>
+        <v>787.2795055323088</v>
       </c>
       <c r="L32" t="n">
-        <v>1365.04053391088</v>
+        <v>1365.040533910881</v>
       </c>
       <c r="M32" t="n">
-        <v>2430.575016444988</v>
+        <v>2039.580438058269</v>
       </c>
       <c r="N32" t="n">
-        <v>3120.643489830072</v>
+        <v>2729.648911443353</v>
       </c>
       <c r="O32" t="n">
-        <v>3758.920319962057</v>
+        <v>3744.917921025456</v>
       </c>
       <c r="P32" t="n">
-        <v>4269.173826564384</v>
+        <v>4269.173826564383</v>
       </c>
       <c r="Q32" t="n">
-        <v>4604.180213397375</v>
+        <v>4604.180213397374</v>
       </c>
       <c r="R32" t="n">
-        <v>4713.641671386271</v>
+        <v>4713.64167138627</v>
       </c>
       <c r="S32" t="n">
-        <v>4622.021985466513</v>
+        <v>4622.021985466512</v>
       </c>
       <c r="T32" t="n">
-        <v>4419.630951010424</v>
+        <v>4419.630951010423</v>
       </c>
       <c r="U32" t="n">
-        <v>4166.166022440234</v>
+        <v>4166.166022440232</v>
       </c>
       <c r="V32" t="n">
-        <v>3835.103135096662</v>
+        <v>3835.103135096661</v>
       </c>
       <c r="W32" t="n">
-        <v>3482.334479826548</v>
+        <v>3482.334479826547</v>
       </c>
       <c r="X32" t="n">
-        <v>3108.868721565468</v>
+        <v>3108.868721565467</v>
       </c>
       <c r="Y32" t="n">
         <v>2718.729389589656</v>
@@ -6771,28 +6771,28 @@
         <v>184.4543185177753</v>
       </c>
       <c r="H33" t="n">
-        <v>98.18636738255684</v>
+        <v>98.18636738255681</v>
       </c>
       <c r="I33" t="n">
-        <v>94.27283342772542</v>
+        <v>94.2728334277254</v>
       </c>
       <c r="J33" t="n">
-        <v>94.27283342772542</v>
+        <v>228.544300905191</v>
       </c>
       <c r="K33" t="n">
-        <v>94.27283342772542</v>
+        <v>536.1904499937871</v>
       </c>
       <c r="L33" t="n">
-        <v>554.263587925383</v>
+        <v>996.1812044914448</v>
       </c>
       <c r="M33" t="n">
-        <v>1110.407970234195</v>
+        <v>1464.502279363845</v>
       </c>
       <c r="N33" t="n">
-        <v>1695.680484399211</v>
+        <v>2049.774793528861</v>
       </c>
       <c r="O33" t="n">
-        <v>2208.870697394749</v>
+        <v>2562.965006524399</v>
       </c>
       <c r="P33" t="n">
         <v>2562.965006524399</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>937.351135631691</v>
+        <v>369.7665123826441</v>
       </c>
       <c r="C34" t="n">
-        <v>768.4149527037841</v>
+        <v>369.7665123826441</v>
       </c>
       <c r="D34" t="n">
-        <v>618.2983132914484</v>
+        <v>369.7665123826441</v>
       </c>
       <c r="E34" t="n">
-        <v>470.3852197090553</v>
+        <v>221.853418800251</v>
       </c>
       <c r="F34" t="n">
-        <v>323.4952722111449</v>
+        <v>94.2728334277254</v>
       </c>
       <c r="G34" t="n">
-        <v>323.4952722111449</v>
+        <v>94.2728334277254</v>
       </c>
       <c r="H34" t="n">
-        <v>180.5457886082862</v>
+        <v>94.2728334277254</v>
       </c>
       <c r="I34" t="n">
-        <v>94.27283342772542</v>
+        <v>94.2728334277254</v>
       </c>
       <c r="J34" t="n">
         <v>164.8629611359539</v>
       </c>
       <c r="K34" t="n">
-        <v>410.7010621045451</v>
+        <v>410.7010621045453</v>
       </c>
       <c r="L34" t="n">
-        <v>780.815626851509</v>
+        <v>780.8156268515093</v>
       </c>
       <c r="M34" t="n">
         <v>1181.438664580475</v>
@@ -6883,25 +6883,25 @@
         <v>2238.858616936402</v>
       </c>
       <c r="S34" t="n">
-        <v>2110.952706008356</v>
+        <v>2053.5778319398</v>
       </c>
       <c r="T34" t="n">
-        <v>1890.756459181423</v>
+        <v>1833.381585112867</v>
       </c>
       <c r="U34" t="n">
-        <v>1601.673639565835</v>
+        <v>1544.298765497279</v>
       </c>
       <c r="V34" t="n">
-        <v>1346.989151359948</v>
+        <v>1289.614277291392</v>
       </c>
       <c r="W34" t="n">
-        <v>1346.989151359948</v>
+        <v>1000.197107254431</v>
       </c>
       <c r="X34" t="n">
-        <v>1118.999600461931</v>
+        <v>772.207556356414</v>
       </c>
       <c r="Y34" t="n">
-        <v>1118.999600461931</v>
+        <v>551.4149772128839</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2332.129549525535</v>
+        <v>2332.129549525534</v>
       </c>
       <c r="C35" t="n">
-        <v>1963.167032585124</v>
+        <v>1963.167032585123</v>
       </c>
       <c r="D35" t="n">
         <v>1604.901333978372</v>
@@ -6923,64 +6923,64 @@
         <v>1219.113081380128</v>
       </c>
       <c r="F35" t="n">
-        <v>808.1271765905205</v>
+        <v>808.1271765905203</v>
       </c>
       <c r="G35" t="n">
-        <v>393.8740783851888</v>
+        <v>393.8740783851887</v>
       </c>
       <c r="H35" t="n">
-        <v>104.6816661485328</v>
+        <v>104.6816661485327</v>
       </c>
       <c r="I35" t="n">
-        <v>94.27283342772542</v>
+        <v>94.27283342772539</v>
       </c>
       <c r="J35" t="n">
-        <v>351.3095616216964</v>
+        <v>351.3095616216965</v>
       </c>
       <c r="K35" t="n">
-        <v>787.2795055323085</v>
+        <v>787.2795055323088</v>
       </c>
       <c r="L35" t="n">
-        <v>1756.0351122976</v>
+        <v>1365.040533910881</v>
       </c>
       <c r="M35" t="n">
-        <v>2430.575016444988</v>
+        <v>2039.580438058269</v>
       </c>
       <c r="N35" t="n">
-        <v>3120.643489830072</v>
+        <v>3120.64348983007</v>
       </c>
       <c r="O35" t="n">
-        <v>3758.920319962057</v>
+        <v>3758.920319962056</v>
       </c>
       <c r="P35" t="n">
-        <v>4269.173826564384</v>
+        <v>4269.173826564383</v>
       </c>
       <c r="Q35" t="n">
-        <v>4604.180213397375</v>
+        <v>4604.180213397373</v>
       </c>
       <c r="R35" t="n">
-        <v>4713.641671386271</v>
+        <v>4713.641671386269</v>
       </c>
       <c r="S35" t="n">
-        <v>4622.021985466513</v>
+        <v>4622.021985466511</v>
       </c>
       <c r="T35" t="n">
-        <v>4419.630951010424</v>
+        <v>4419.630951010422</v>
       </c>
       <c r="U35" t="n">
-        <v>4166.166022440234</v>
+        <v>4166.166022440233</v>
       </c>
       <c r="V35" t="n">
-        <v>3835.103135096663</v>
+        <v>3835.103135096662</v>
       </c>
       <c r="W35" t="n">
-        <v>3482.334479826549</v>
+        <v>3482.334479826548</v>
       </c>
       <c r="X35" t="n">
-        <v>3108.868721565469</v>
+        <v>3108.868721565468</v>
       </c>
       <c r="Y35" t="n">
-        <v>2718.729389589657</v>
+        <v>2718.729389589656</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>184.4543185177753</v>
       </c>
       <c r="H36" t="n">
-        <v>98.18636738255684</v>
+        <v>98.1863673825568</v>
       </c>
       <c r="I36" t="n">
-        <v>94.27283342772542</v>
+        <v>94.27283342772539</v>
       </c>
       <c r="J36" t="n">
-        <v>94.27283342772542</v>
+        <v>228.5443009051909</v>
       </c>
       <c r="K36" t="n">
-        <v>209.3432271955457</v>
+        <v>536.1904499937871</v>
       </c>
       <c r="L36" t="n">
-        <v>669.3339816932033</v>
+        <v>996.1812044914448</v>
       </c>
       <c r="M36" t="n">
-        <v>1225.478364002015</v>
+        <v>1552.325586800257</v>
       </c>
       <c r="N36" t="n">
-        <v>1810.750878167032</v>
+        <v>2137.598100965273</v>
       </c>
       <c r="O36" t="n">
-        <v>2323.941091162569</v>
+        <v>2170.417683190378</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.941091162569</v>
+        <v>2562.965006524399</v>
       </c>
       <c r="Q36" t="n">
-        <v>2536.429384717866</v>
+        <v>2562.965006524399</v>
       </c>
       <c r="R36" t="n">
         <v>2562.965006524399</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>706.5278174682212</v>
+        <v>624.7198108104316</v>
       </c>
       <c r="C37" t="n">
-        <v>706.5278174682212</v>
+        <v>624.7198108104316</v>
       </c>
       <c r="D37" t="n">
-        <v>556.4111780558854</v>
+        <v>474.6031713980958</v>
       </c>
       <c r="E37" t="n">
-        <v>408.4980844734923</v>
+        <v>326.6900778157027</v>
       </c>
       <c r="F37" t="n">
-        <v>261.6081369755819</v>
+        <v>179.8001303177923</v>
       </c>
       <c r="G37" t="n">
-        <v>94.27283342772542</v>
+        <v>179.8001303177923</v>
       </c>
       <c r="H37" t="n">
-        <v>94.27283342772542</v>
+        <v>94.27283342772539</v>
       </c>
       <c r="I37" t="n">
-        <v>94.27283342772542</v>
+        <v>94.27283342772539</v>
       </c>
       <c r="J37" t="n">
         <v>164.8629611359539</v>
       </c>
       <c r="K37" t="n">
-        <v>410.7010621045451</v>
+        <v>410.7010621045453</v>
       </c>
       <c r="L37" t="n">
-        <v>780.8156268515081</v>
+        <v>780.8156268515093</v>
       </c>
       <c r="M37" t="n">
-        <v>1181.438664580474</v>
+        <v>1181.438664580475</v>
       </c>
       <c r="N37" t="n">
-        <v>1577.970398330616</v>
+        <v>1577.970398330617</v>
       </c>
       <c r="O37" t="n">
-        <v>1928.215339455296</v>
+        <v>1928.215339455297</v>
       </c>
       <c r="P37" t="n">
-        <v>2204.389711041873</v>
+        <v>2204.389711041874</v>
       </c>
       <c r="Q37" t="n">
-        <v>2312.163450533949</v>
+        <v>2312.16345053395</v>
       </c>
       <c r="R37" t="n">
-        <v>2238.858616936401</v>
+        <v>2312.16345053395</v>
       </c>
       <c r="S37" t="n">
-        <v>2053.577831939799</v>
+        <v>2126.882665537347</v>
       </c>
       <c r="T37" t="n">
-        <v>1833.381585112866</v>
+        <v>1906.686418710415</v>
       </c>
       <c r="U37" t="n">
-        <v>1591.642900545895</v>
+        <v>1617.603599094827</v>
       </c>
       <c r="V37" t="n">
-        <v>1336.958412340008</v>
+        <v>1362.91911088894</v>
       </c>
       <c r="W37" t="n">
-        <v>1336.958412340008</v>
+        <v>1073.501940851979</v>
       </c>
       <c r="X37" t="n">
-        <v>1108.968861441991</v>
+        <v>845.5123899539617</v>
       </c>
       <c r="Y37" t="n">
-        <v>888.1762822984609</v>
+        <v>624.7198108104316</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2332.129549525535</v>
+        <v>2332.129549525534</v>
       </c>
       <c r="C38" t="n">
-        <v>1963.167032585124</v>
+        <v>1963.167032585123</v>
       </c>
       <c r="D38" t="n">
-        <v>1604.901333978373</v>
+        <v>1604.901333978372</v>
       </c>
       <c r="E38" t="n">
         <v>1219.113081380128</v>
       </c>
       <c r="F38" t="n">
-        <v>808.1271765905203</v>
+        <v>808.1271765905205</v>
       </c>
       <c r="G38" t="n">
-        <v>393.8740783851888</v>
+        <v>393.8740783851889</v>
       </c>
       <c r="H38" t="n">
-        <v>104.6816661485328</v>
+        <v>104.6816661485327</v>
       </c>
       <c r="I38" t="n">
-        <v>94.27283342772542</v>
+        <v>94.2728334277254</v>
       </c>
       <c r="J38" t="n">
-        <v>351.3095616216964</v>
+        <v>351.3095616216965</v>
       </c>
       <c r="K38" t="n">
-        <v>787.2795055323085</v>
+        <v>787.2795055323088</v>
       </c>
       <c r="L38" t="n">
-        <v>1365.04053391088</v>
+        <v>1365.040533910881</v>
       </c>
       <c r="M38" t="n">
-        <v>2039.580438058268</v>
+        <v>2039.580438058269</v>
       </c>
       <c r="N38" t="n">
-        <v>3120.643489830072</v>
+        <v>2729.648911443353</v>
       </c>
       <c r="O38" t="n">
-        <v>3758.920319962057</v>
+        <v>3367.925741575338</v>
       </c>
       <c r="P38" t="n">
-        <v>4269.173826564384</v>
+        <v>4058.981985811078</v>
       </c>
       <c r="Q38" t="n">
-        <v>4604.180213397375</v>
+        <v>4604.180213397374</v>
       </c>
       <c r="R38" t="n">
-        <v>4713.641671386271</v>
+        <v>4713.64167138627</v>
       </c>
       <c r="S38" t="n">
-        <v>4622.021985466513</v>
+        <v>4622.021985466512</v>
       </c>
       <c r="T38" t="n">
-        <v>4419.630951010424</v>
+        <v>4419.630951010423</v>
       </c>
       <c r="U38" t="n">
-        <v>4166.166022440234</v>
+        <v>4166.166022440233</v>
       </c>
       <c r="V38" t="n">
-        <v>3835.103135096663</v>
+        <v>3835.103135096662</v>
       </c>
       <c r="W38" t="n">
-        <v>3482.334479826549</v>
+        <v>3482.334479826548</v>
       </c>
       <c r="X38" t="n">
-        <v>3108.868721565469</v>
+        <v>3108.868721565468</v>
       </c>
       <c r="Y38" t="n">
-        <v>2718.729389589657</v>
+        <v>2718.729389589656</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>184.4543185177753</v>
       </c>
       <c r="H39" t="n">
-        <v>98.18636738255684</v>
+        <v>98.18636738255681</v>
       </c>
       <c r="I39" t="n">
-        <v>94.27283342772542</v>
+        <v>94.2728334277254</v>
       </c>
       <c r="J39" t="n">
-        <v>94.27283342772542</v>
+        <v>228.544300905191</v>
       </c>
       <c r="K39" t="n">
-        <v>401.9189825163215</v>
+        <v>536.1904499937871</v>
       </c>
       <c r="L39" t="n">
-        <v>861.9097370139791</v>
+        <v>996.1812044914448</v>
       </c>
       <c r="M39" t="n">
-        <v>1071.954956029825</v>
+        <v>1552.325586800257</v>
       </c>
       <c r="N39" t="n">
-        <v>1657.227470194841</v>
+        <v>2137.598100965273</v>
       </c>
       <c r="O39" t="n">
-        <v>2170.417683190379</v>
+        <v>2170.417683190378</v>
       </c>
       <c r="P39" t="n">
         <v>2562.965006524399</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>809.7317855851336</v>
+        <v>369.7665123826441</v>
       </c>
       <c r="C40" t="n">
-        <v>640.7956026572267</v>
+        <v>369.7665123826441</v>
       </c>
       <c r="D40" t="n">
-        <v>490.678963244891</v>
+        <v>369.7665123826441</v>
       </c>
       <c r="E40" t="n">
-        <v>342.7658696624978</v>
+        <v>369.7665123826441</v>
       </c>
       <c r="F40" t="n">
-        <v>195.8759221645875</v>
+        <v>222.8765648847338</v>
       </c>
       <c r="G40" t="n">
-        <v>195.8759221645875</v>
+        <v>180.5457886082862</v>
       </c>
       <c r="H40" t="n">
-        <v>94.27283342772542</v>
+        <v>180.5457886082862</v>
       </c>
       <c r="I40" t="n">
-        <v>94.27283342772542</v>
+        <v>94.2728334277254</v>
       </c>
       <c r="J40" t="n">
         <v>164.8629611359539</v>
       </c>
       <c r="K40" t="n">
-        <v>410.7010621045451</v>
+        <v>410.7010621045453</v>
       </c>
       <c r="L40" t="n">
-        <v>780.815626851509</v>
+        <v>780.8156268515093</v>
       </c>
       <c r="M40" t="n">
         <v>1181.438664580475</v>
@@ -7357,25 +7357,25 @@
         <v>2238.858616936402</v>
       </c>
       <c r="S40" t="n">
-        <v>2238.858616936402</v>
+        <v>2053.5778319398</v>
       </c>
       <c r="T40" t="n">
-        <v>2018.662370109469</v>
+        <v>1833.381585112867</v>
       </c>
       <c r="U40" t="n">
-        <v>1729.579550493881</v>
+        <v>1544.298765497279</v>
       </c>
       <c r="V40" t="n">
-        <v>1729.579550493881</v>
+        <v>1289.614277291392</v>
       </c>
       <c r="W40" t="n">
-        <v>1440.162380456921</v>
+        <v>1000.197107254431</v>
       </c>
       <c r="X40" t="n">
-        <v>1212.172829558903</v>
+        <v>772.207556356414</v>
       </c>
       <c r="Y40" t="n">
-        <v>991.3802504153733</v>
+        <v>551.4149772128839</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2332.129549525534</v>
       </c>
       <c r="C41" t="n">
-        <v>1963.167032585123</v>
+        <v>1963.167032585122</v>
       </c>
       <c r="D41" t="n">
         <v>1604.901333978372</v>
@@ -7400,55 +7400,55 @@
         <v>808.1271765905203</v>
       </c>
       <c r="G41" t="n">
-        <v>393.8740783851888</v>
+        <v>393.8740783851887</v>
       </c>
       <c r="H41" t="n">
-        <v>104.6816661485328</v>
+        <v>104.6816661485327</v>
       </c>
       <c r="I41" t="n">
-        <v>94.27283342772542</v>
+        <v>94.2728334277254</v>
       </c>
       <c r="J41" t="n">
-        <v>351.3095616216964</v>
+        <v>518.7152106420494</v>
       </c>
       <c r="K41" t="n">
-        <v>787.2795055323085</v>
+        <v>968.0822431657211</v>
       </c>
       <c r="L41" t="n">
-        <v>1756.0351122976</v>
+        <v>1545.843271544293</v>
       </c>
       <c r="M41" t="n">
-        <v>2430.575016444988</v>
+        <v>2220.383175691682</v>
       </c>
       <c r="N41" t="n">
-        <v>3120.643489830072</v>
+        <v>2910.451649076766</v>
       </c>
       <c r="O41" t="n">
-        <v>3758.920319962057</v>
+        <v>3548.728479208751</v>
       </c>
       <c r="P41" t="n">
-        <v>4269.173826564384</v>
+        <v>4058.981985811078</v>
       </c>
       <c r="Q41" t="n">
-        <v>4604.180213397375</v>
+        <v>4604.180213397374</v>
       </c>
       <c r="R41" t="n">
-        <v>4713.641671386271</v>
+        <v>4713.64167138627</v>
       </c>
       <c r="S41" t="n">
-        <v>4622.021985466513</v>
+        <v>4622.021985466512</v>
       </c>
       <c r="T41" t="n">
-        <v>4419.630951010424</v>
+        <v>4419.630951010423</v>
       </c>
       <c r="U41" t="n">
-        <v>4166.166022440234</v>
+        <v>4166.166022440233</v>
       </c>
       <c r="V41" t="n">
-        <v>3835.103135096663</v>
+        <v>3835.103135096662</v>
       </c>
       <c r="W41" t="n">
-        <v>3482.334479826549</v>
+        <v>3482.334479826548</v>
       </c>
       <c r="X41" t="n">
         <v>3108.868721565468</v>
@@ -7482,34 +7482,34 @@
         <v>184.4543185177753</v>
       </c>
       <c r="H42" t="n">
-        <v>98.18636738255684</v>
+        <v>98.18636738255681</v>
       </c>
       <c r="I42" t="n">
-        <v>94.27283342772542</v>
+        <v>94.2728334277254</v>
       </c>
       <c r="J42" t="n">
-        <v>94.27283342772542</v>
+        <v>228.544300905191</v>
       </c>
       <c r="K42" t="n">
-        <v>94.27283342772542</v>
+        <v>536.1904499937871</v>
       </c>
       <c r="L42" t="n">
-        <v>489.2749519144794</v>
+        <v>996.1812044914448</v>
       </c>
       <c r="M42" t="n">
-        <v>1045.419334223292</v>
+        <v>1552.325586800257</v>
       </c>
       <c r="N42" t="n">
-        <v>1630.691848388308</v>
+        <v>2137.598100965273</v>
       </c>
       <c r="O42" t="n">
-        <v>2143.882061383845</v>
+        <v>2562.965006524399</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.429384717866</v>
+        <v>2562.965006524399</v>
       </c>
       <c r="Q42" t="n">
-        <v>2536.429384717866</v>
+        <v>2562.965006524399</v>
       </c>
       <c r="R42" t="n">
         <v>2562.965006524399</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>625.4654691009255</v>
+        <v>369.7665123826441</v>
       </c>
       <c r="C43" t="n">
-        <v>625.4654691009255</v>
+        <v>200.8303294547372</v>
       </c>
       <c r="D43" t="n">
-        <v>475.3488296885897</v>
+        <v>200.8303294547372</v>
       </c>
       <c r="E43" t="n">
-        <v>327.4357361061966</v>
+        <v>200.8303294547372</v>
       </c>
       <c r="F43" t="n">
-        <v>180.5457886082862</v>
+        <v>200.8303294547372</v>
       </c>
       <c r="G43" t="n">
-        <v>180.5457886082862</v>
+        <v>200.8303294547372</v>
       </c>
       <c r="H43" t="n">
-        <v>180.5457886082862</v>
+        <v>94.2728334277254</v>
       </c>
       <c r="I43" t="n">
-        <v>94.27283342772542</v>
+        <v>94.2728334277254</v>
       </c>
       <c r="J43" t="n">
         <v>164.8629611359539</v>
       </c>
       <c r="K43" t="n">
-        <v>410.7010621045451</v>
+        <v>410.7010621045453</v>
       </c>
       <c r="L43" t="n">
-        <v>780.815626851509</v>
+        <v>780.8156268515093</v>
       </c>
       <c r="M43" t="n">
         <v>1181.438664580475</v>
@@ -7591,28 +7591,28 @@
         <v>2312.16345053395</v>
       </c>
       <c r="R43" t="n">
-        <v>2312.16345053395</v>
+        <v>2238.858616936402</v>
       </c>
       <c r="S43" t="n">
-        <v>2126.882665537347</v>
+        <v>2053.5778319398</v>
       </c>
       <c r="T43" t="n">
-        <v>1906.686418710415</v>
+        <v>1833.381585112867</v>
       </c>
       <c r="U43" t="n">
-        <v>1617.603599094827</v>
+        <v>1544.298765497279</v>
       </c>
       <c r="V43" t="n">
-        <v>1545.313234009673</v>
+        <v>1289.614277291392</v>
       </c>
       <c r="W43" t="n">
-        <v>1255.896063972713</v>
+        <v>1000.197107254431</v>
       </c>
       <c r="X43" t="n">
-        <v>1027.906513074695</v>
+        <v>772.207556356414</v>
       </c>
       <c r="Y43" t="n">
-        <v>807.1139339311652</v>
+        <v>551.4149772128839</v>
       </c>
     </row>
     <row r="44">
@@ -7634,55 +7634,55 @@
         <v>1219.113081380128</v>
       </c>
       <c r="F44" t="n">
-        <v>808.1271765905205</v>
+        <v>808.1271765905203</v>
       </c>
       <c r="G44" t="n">
-        <v>393.8740783851888</v>
+        <v>393.8740783851887</v>
       </c>
       <c r="H44" t="n">
-        <v>104.6816661485328</v>
+        <v>104.6816661485327</v>
       </c>
       <c r="I44" t="n">
-        <v>94.27283342772542</v>
+        <v>94.2728334277254</v>
       </c>
       <c r="J44" t="n">
-        <v>351.3095616216964</v>
+        <v>351.3095616216965</v>
       </c>
       <c r="K44" t="n">
-        <v>787.2795055323085</v>
+        <v>787.2795055323088</v>
       </c>
       <c r="L44" t="n">
-        <v>1365.04053391088</v>
+        <v>1379.042932847481</v>
       </c>
       <c r="M44" t="n">
-        <v>2039.580438058268</v>
+        <v>2053.582836994869</v>
       </c>
       <c r="N44" t="n">
-        <v>3120.643489830072</v>
+        <v>2743.651310379953</v>
       </c>
       <c r="O44" t="n">
         <v>3758.920319962057</v>
       </c>
       <c r="P44" t="n">
-        <v>4269.173826564384</v>
+        <v>4269.173826564383</v>
       </c>
       <c r="Q44" t="n">
-        <v>4604.180213397375</v>
+        <v>4604.180213397374</v>
       </c>
       <c r="R44" t="n">
-        <v>4713.641671386271</v>
+        <v>4713.64167138627</v>
       </c>
       <c r="S44" t="n">
-        <v>4622.021985466513</v>
+        <v>4622.021985466512</v>
       </c>
       <c r="T44" t="n">
-        <v>4419.630951010424</v>
+        <v>4419.630951010423</v>
       </c>
       <c r="U44" t="n">
-        <v>4166.166022440234</v>
+        <v>4166.166022440233</v>
       </c>
       <c r="V44" t="n">
-        <v>3835.103135096663</v>
+        <v>3835.103135096662</v>
       </c>
       <c r="W44" t="n">
         <v>3482.334479826548</v>
@@ -7719,34 +7719,34 @@
         <v>184.4543185177753</v>
       </c>
       <c r="H45" t="n">
-        <v>98.18636738255684</v>
+        <v>98.18636738255681</v>
       </c>
       <c r="I45" t="n">
-        <v>94.27283342772542</v>
+        <v>94.2728334277254</v>
       </c>
       <c r="J45" t="n">
-        <v>94.27283342772542</v>
+        <v>228.544300905191</v>
       </c>
       <c r="K45" t="n">
-        <v>401.9189825163215</v>
+        <v>536.1904499937871</v>
       </c>
       <c r="L45" t="n">
-        <v>789.9768713547204</v>
+        <v>996.1812044914448</v>
       </c>
       <c r="M45" t="n">
-        <v>1346.121253663533</v>
+        <v>1552.325586800257</v>
       </c>
       <c r="N45" t="n">
-        <v>1931.393767828549</v>
+        <v>2137.598100965273</v>
       </c>
       <c r="O45" t="n">
-        <v>1931.393767828549</v>
+        <v>2170.417683190378</v>
       </c>
       <c r="P45" t="n">
-        <v>2323.941091162569</v>
+        <v>2562.965006524399</v>
       </c>
       <c r="Q45" t="n">
-        <v>2536.429384717866</v>
+        <v>2562.965006524399</v>
       </c>
       <c r="R45" t="n">
         <v>2562.965006524399</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>555.0472973792498</v>
+        <v>597.7560632806615</v>
       </c>
       <c r="C46" t="n">
-        <v>386.1111144513429</v>
+        <v>428.8198803527546</v>
       </c>
       <c r="D46" t="n">
-        <v>386.1111144513429</v>
+        <v>428.8198803527546</v>
       </c>
       <c r="E46" t="n">
-        <v>386.1111144513429</v>
+        <v>404.5576205784407</v>
       </c>
       <c r="F46" t="n">
-        <v>239.2211669534326</v>
+        <v>404.5576205784407</v>
       </c>
       <c r="G46" t="n">
-        <v>239.2211669534326</v>
+        <v>237.2223170305841</v>
       </c>
       <c r="H46" t="n">
-        <v>96.27168335057385</v>
+        <v>94.2728334277254</v>
       </c>
       <c r="I46" t="n">
-        <v>94.27283342772542</v>
+        <v>94.2728334277254</v>
       </c>
       <c r="J46" t="n">
         <v>164.8629611359539</v>
       </c>
       <c r="K46" t="n">
-        <v>410.7010621045451</v>
+        <v>410.7010621045453</v>
       </c>
       <c r="L46" t="n">
-        <v>780.815626851509</v>
+        <v>780.8156268515093</v>
       </c>
       <c r="M46" t="n">
         <v>1181.438664580475</v>
       </c>
       <c r="N46" t="n">
-        <v>1577.97039833062</v>
+        <v>1577.970398330617</v>
       </c>
       <c r="O46" t="n">
-        <v>1928.2153394553</v>
+        <v>1928.215339455297</v>
       </c>
       <c r="P46" t="n">
-        <v>2204.389711041877</v>
+        <v>2204.389711041874</v>
       </c>
       <c r="Q46" t="n">
-        <v>2312.163450533953</v>
+        <v>2312.16345053395</v>
       </c>
       <c r="R46" t="n">
-        <v>2238.858616936405</v>
+        <v>2238.858616936402</v>
       </c>
       <c r="S46" t="n">
-        <v>2238.858616936405</v>
+        <v>2053.5778319398</v>
       </c>
       <c r="T46" t="n">
-        <v>2018.662370109472</v>
+        <v>1833.381585112867</v>
       </c>
       <c r="U46" t="n">
-        <v>1729.579550493885</v>
+        <v>1544.298765497279</v>
       </c>
       <c r="V46" t="n">
-        <v>1474.895062287998</v>
+        <v>1289.614277291392</v>
       </c>
       <c r="W46" t="n">
-        <v>1185.477892251037</v>
+        <v>1000.197107254431</v>
       </c>
       <c r="X46" t="n">
-        <v>957.4883413530197</v>
+        <v>1000.197107254431</v>
       </c>
       <c r="Y46" t="n">
-        <v>736.6957622094895</v>
+        <v>779.4045281109012</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8070,13 @@
         <v>381.709495280812</v>
       </c>
       <c r="O3" t="n">
-        <v>133.2779903082775</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>134.2926466205231</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,16 +8304,16 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N6" t="n">
-        <v>212.3582274761389</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>198.6880201340531</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>225.847403400368</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8702,13 +8702,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>14.14383730969774</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8939,13 +8939,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>182.6290279125391</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>73.14531040095892</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>73.14531040096114</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>73.14531040095892</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>14.14383730969803</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>70.79860600127768</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>182.6290279125384</v>
+        <v>73.14531040096034</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9887,10 +9887,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>73.14531040096062</v>
       </c>
       <c r="P26" t="n">
-        <v>225.8474034003698</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10115,13 +10115,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>394.9440185724434</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>394.9440185724429</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10355,16 +10355,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>394.9440185724445</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>14.14383730969769</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10589,13 +10589,13 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>394.9440185724443</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>394.944018572442</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10832,16 +10832,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>394.9440185724445</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>182.6290279125383</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>13.53241274046411</v>
       </c>
       <c r="L41" t="n">
-        <v>394.9440185724443</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11300,16 +11300,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>14.14383730969723</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>394.9440185724445</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>133.4794965486763</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.661950512378</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>44.34411095801885</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>85.41022562875517</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>183.4279771466366</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>61.458970494901</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.661950512378</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.5199887668301</v>
       </c>
       <c r="I16" t="n">
-        <v>85.41022562875519</v>
+        <v>85.41022562875517</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>72.57178526157212</v>
+        <v>72.57178526157209</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.9942843586635</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>75.47931292607922</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
     </row>
     <row r="18">
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>72.57178526157212</v>
+        <v>72.57178526157209</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>183.4279771466366</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>176.5215294559438</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>262.0424657796971</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>34.44319711383856</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>85.41022562875517</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>72.57178526157212</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.9942843586635</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>65.87395449673005</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.661950512378</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>9.078105686577842</v>
+        <v>85.41022562875517</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>36.02806770008817</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>91.95780153333286</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>104.5264941328861</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>165.661950512378</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>141.5199887668301</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>183.4279771466366</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>82.28395251133912</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>72.57178526157212</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.9942843586635</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1919914194319</v>
+        <v>116.6199666826057</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>19.1162685041309</v>
       </c>
       <c r="G34" t="n">
         <v>165.661950512378</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>141.5199887668301</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.41022562875517</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>56.80112532787055</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.661950512378</v>
       </c>
       <c r="H37" t="n">
-        <v>141.5199887668301</v>
+        <v>56.84796484566385</v>
       </c>
       <c r="I37" t="n">
-        <v>85.41022562875519</v>
+        <v>85.41022562875517</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>72.57178526157209</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,13 +25366,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>46.87069369813113</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.661950512378</v>
+        <v>123.7544819986949</v>
       </c>
       <c r="H40" t="n">
-        <v>40.93293091733669</v>
+        <v>141.5199887668301</v>
       </c>
       <c r="I40" t="n">
-        <v>85.41022562875519</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>183.4279771466366</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.661950512378</v>
       </c>
       <c r="H43" t="n">
-        <v>141.5199887668301</v>
+        <v>36.02806770008844</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>85.41022562875517</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>72.57178526157212</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>180.5701818895262</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>122.4143254699984</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.661950512378</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>83.43136420513524</v>
+        <v>85.41022562875517</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>183.4279771466366</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>817538.8980233039</v>
+        <v>817538.8980233038</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>817538.8980233041</v>
+        <v>817538.8980233039</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>817538.8980233041</v>
+        <v>817538.8980233039</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>817538.8980233041</v>
+        <v>817538.8980233039</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>817538.8980233041</v>
+        <v>817538.8980233039</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>817538.8980233041</v>
+        <v>817538.8980233038</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982125</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982126</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982125</v>
-      </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
-        <v>602685.0543026916</v>
+        <v>602685.0543026915</v>
       </c>
       <c r="F2" t="n">
-        <v>602685.0543026917</v>
+        <v>602685.0543026914</v>
       </c>
       <c r="G2" t="n">
-        <v>602685.0543026916</v>
+        <v>602685.0543026915</v>
       </c>
       <c r="H2" t="n">
         <v>602685.0543026916</v>
       </c>
       <c r="I2" t="n">
+        <v>602685.0543026914</v>
+      </c>
+      <c r="J2" t="n">
+        <v>602685.0543026916</v>
+      </c>
+      <c r="K2" t="n">
+        <v>602685.0543026914</v>
+      </c>
+      <c r="L2" t="n">
+        <v>602685.0543026916</v>
+      </c>
+      <c r="M2" t="n">
+        <v>602685.0543026917</v>
+      </c>
+      <c r="N2" t="n">
+        <v>602685.0543026916</v>
+      </c>
+      <c r="O2" t="n">
         <v>602685.0543026915</v>
-      </c>
-      <c r="J2" t="n">
-        <v>602685.0543026912</v>
-      </c>
-      <c r="K2" t="n">
-        <v>602685.0543026915</v>
-      </c>
-      <c r="L2" t="n">
-        <v>602685.0543026914</v>
-      </c>
-      <c r="M2" t="n">
-        <v>602685.0543026915</v>
-      </c>
-      <c r="N2" t="n">
-        <v>602685.0543026915</v>
-      </c>
-      <c r="O2" t="n">
-        <v>602685.0543026916</v>
       </c>
       <c r="P2" t="n">
         <v>602685.0543026917</v>
@@ -26372,7 +26372,7 @@
         <v>417183.6221536879</v>
       </c>
       <c r="E3" t="n">
-        <v>884676.72811319</v>
+        <v>884676.7281131902</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124982</v>
+        <v>68875.69873124985</v>
       </c>
       <c r="K3" t="n">
-        <v>3323.773824475296</v>
+        <v>3323.773824475326</v>
       </c>
       <c r="L3" t="n">
-        <v>100763.3119392804</v>
+        <v>100763.3119392803</v>
       </c>
       <c r="M3" t="n">
         <v>125629.5042495097</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>354753.502998367</v>
+        <v>354753.5029983671</v>
       </c>
       <c r="C4" t="n">
         <v>350497.5914804416</v>
@@ -26424,40 +26424,40 @@
         <v>227638.2345336369</v>
       </c>
       <c r="E4" t="n">
-        <v>14755.19483555007</v>
+        <v>14755.19483555005</v>
       </c>
       <c r="F4" t="n">
-        <v>14755.19483555009</v>
+        <v>14755.19483555004</v>
       </c>
       <c r="G4" t="n">
-        <v>14755.19483555008</v>
+        <v>14755.19483555004</v>
       </c>
       <c r="H4" t="n">
-        <v>14755.19483555008</v>
+        <v>14755.19483555006</v>
       </c>
       <c r="I4" t="n">
         <v>14755.19483555007</v>
       </c>
       <c r="J4" t="n">
-        <v>14755.19483555003</v>
+        <v>14755.19483555008</v>
       </c>
       <c r="K4" t="n">
-        <v>14755.19483555004</v>
+        <v>14755.19483555007</v>
       </c>
       <c r="L4" t="n">
-        <v>14755.19483555006</v>
+        <v>14755.19483555007</v>
       </c>
       <c r="M4" t="n">
-        <v>14755.19483555004</v>
+        <v>14755.19483555005</v>
       </c>
       <c r="N4" t="n">
-        <v>14755.1948355501</v>
+        <v>14755.19483555007</v>
       </c>
       <c r="O4" t="n">
         <v>14755.19483555006</v>
       </c>
       <c r="P4" t="n">
-        <v>14755.1948355501</v>
+        <v>14755.19483555005</v>
       </c>
     </row>
     <row r="5">
@@ -26488,28 +26488,28 @@
         <v>99803.19485523738</v>
       </c>
       <c r="I5" t="n">
-        <v>99803.19485523738</v>
+        <v>99803.19485523739</v>
       </c>
       <c r="J5" t="n">
-        <v>99803.19485523738</v>
+        <v>99803.19485523739</v>
       </c>
       <c r="K5" t="n">
-        <v>99803.19485523738</v>
+        <v>99803.19485523739</v>
       </c>
       <c r="L5" t="n">
         <v>99803.19485523739</v>
       </c>
       <c r="M5" t="n">
+        <v>99803.19485523738</v>
+      </c>
+      <c r="N5" t="n">
         <v>99803.19485523739</v>
-      </c>
-      <c r="N5" t="n">
-        <v>99803.19485523741</v>
       </c>
       <c r="O5" t="n">
         <v>99803.19485523739</v>
       </c>
       <c r="P5" t="n">
-        <v>99803.19485523741</v>
+        <v>99803.19485523739</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100498.9621180628</v>
+        <v>100498.9621180626</v>
       </c>
       <c r="C6" t="n">
-        <v>198995.6688166014</v>
+        <v>198995.6688166015</v>
       </c>
       <c r="D6" t="n">
-        <v>-111899.607352522</v>
+        <v>-111899.6073525216</v>
       </c>
       <c r="E6" t="n">
-        <v>-396550.0635012859</v>
+        <v>-396593.7177449378</v>
       </c>
       <c r="F6" t="n">
-        <v>488126.6646119043</v>
+        <v>488083.0103682522</v>
       </c>
       <c r="G6" t="n">
-        <v>488126.6646119042</v>
+        <v>488083.0103682523</v>
       </c>
       <c r="H6" t="n">
-        <v>488126.6646119042</v>
+        <v>488083.0103682525</v>
       </c>
       <c r="I6" t="n">
-        <v>488126.6646119041</v>
+        <v>488083.0103682522</v>
       </c>
       <c r="J6" t="n">
-        <v>419250.9658806541</v>
+        <v>419207.3116370025</v>
       </c>
       <c r="K6" t="n">
-        <v>484802.8907874288</v>
+        <v>484759.2365437769</v>
       </c>
       <c r="L6" t="n">
-        <v>387363.3526726235</v>
+        <v>387319.698428972</v>
       </c>
       <c r="M6" t="n">
-        <v>362497.1603623944</v>
+        <v>362453.5061187429</v>
       </c>
       <c r="N6" t="n">
-        <v>488126.664611904</v>
+        <v>488083.0103682525</v>
       </c>
       <c r="O6" t="n">
-        <v>488126.6646119042</v>
+        <v>488083.0103682523</v>
       </c>
       <c r="P6" t="n">
-        <v>488126.6646119042</v>
+        <v>488083.0103682526</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26793,7 +26793,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1178.410417846567</v>
@@ -26817,19 +26817,19 @@
         <v>1178.410417846567</v>
       </c>
       <c r="L4" t="n">
-        <v>1178.410417846568</v>
+        <v>1178.410417846567</v>
       </c>
       <c r="M4" t="n">
-        <v>1178.410417846568</v>
+        <v>1178.410417846567</v>
       </c>
       <c r="N4" t="n">
-        <v>1178.410417846568</v>
+        <v>1178.410417846567</v>
       </c>
       <c r="O4" t="n">
-        <v>1178.410417846568</v>
+        <v>1178.410417846567</v>
       </c>
       <c r="P4" t="n">
-        <v>1178.410417846568</v>
+        <v>1178.410417846567</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26966,7 @@
         <v>342.7224034979613</v>
       </c>
       <c r="E3" t="n">
-        <v>913.8086958822748</v>
+        <v>913.8086958822751</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>12.91447975068888</v>
       </c>
       <c r="D4" t="n">
-        <v>398.1307590522001</v>
+        <v>398.1307590522</v>
       </c>
       <c r="E4" t="n">
-        <v>504.1231450920119</v>
+        <v>504.1231450920118</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>12.91447975068888</v>
+        <v>12.914479750689</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522003</v>
+        <v>398.1307590522</v>
       </c>
       <c r="M4" t="n">
-        <v>504.1231450920119</v>
+        <v>504.1231450920116</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>12.91447975068888</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522001</v>
+        <v>398.1307590522</v>
       </c>
       <c r="M4" t="n">
-        <v>504.1231450920119</v>
+        <v>504.1231450920118</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>102.030857819341</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>349.0386382726513</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.6883361205952</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>197.8956873438839</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.99893476574641</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27473,10 +27473,10 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>43.78135270343179</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>165.7044498964169</v>
       </c>
     </row>
     <row r="4">
@@ -27558,10 +27558,10 @@
         <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>30.72511533612201</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>65.87458628206232</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865207</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27634,7 +27634,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
-        <v>162.7559525658882</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505753</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>148.5304376784654</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,16 +27695,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>31.39535428547589</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.2681884137393</v>
@@ -27746,22 +27746,22 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>175.0705216137295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,19 +27786,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
         <v>161.6656840978772</v>
       </c>
       <c r="I7" t="n">
-        <v>146.3479214995117</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J7" t="n">
         <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>14.93225064571201</v>
+        <v>7.047877796461911</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>26.70601316352986</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>109.6331343724195</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>141.5772681289777</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>63.37316471551389</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-1.167860508675783e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -29463,7 +29463,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-5.135540558991016e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-9.30691416654334e-13</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30757,7 +30757,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>-3.348081657766396e-13</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -30888,7 +30888,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>3.393552105990239e-12</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -31282,7 +31282,7 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I5" t="n">
-        <v>5.42776745276012</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -31294,28 +31294,28 @@
         <v>22.21755819470702</v>
       </c>
       <c r="M5" t="n">
-        <v>24.72131435677233</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N5" t="n">
         <v>25.12133106840334</v>
       </c>
       <c r="O5" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P5" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q5" t="n">
         <v>15.20362680796963</v>
       </c>
       <c r="R5" t="n">
-        <v>8.84383625587038</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S5" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T5" t="n">
-        <v>0.616303794162698</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U5" t="n">
         <v>0.01126311902524633</v>
@@ -31355,25 +31355,25 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I6" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J6" t="n">
-        <v>7.116914878779991</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K6" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L6" t="n">
         <v>16.35591992358773</v>
       </c>
       <c r="M6" t="n">
-        <v>19.08658709192331</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N6" t="n">
         <v>19.59175225833409</v>
@@ -31385,10 +31385,10 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.615648792164377</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R6" t="n">
-        <v>4.676990252263571</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S6" t="n">
         <v>1.399198482504676</v>
@@ -31397,7 +31397,7 @@
         <v>0.3036277226497752</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,37 +31434,37 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I7" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J7" t="n">
-        <v>4.464923682174389</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K7" t="n">
-        <v>7.337241180170847</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L7" t="n">
-        <v>9.389142586894685</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M7" t="n">
-        <v>9.89953440294882</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N7" t="n">
-        <v>9.664145601394052</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O7" t="n">
-        <v>8.926402650179687</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P7" t="n">
-        <v>7.638079550938414</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.288210368587926</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R7" t="n">
         <v>2.839592713390063</v>
@@ -31473,10 +31473,10 @@
         <v>1.100586177025627</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.192170291856725</v>
+        <v>5.192170291856726</v>
       </c>
       <c r="H11" t="n">
-        <v>53.1743140014777</v>
+        <v>53.17431400147772</v>
       </c>
       <c r="I11" t="n">
         <v>200.1711451768066</v>
       </c>
       <c r="J11" t="n">
-        <v>440.6789633084752</v>
+        <v>440.6789633084753</v>
       </c>
       <c r="K11" t="n">
-        <v>660.4635317627705</v>
+        <v>660.4635317627707</v>
       </c>
       <c r="L11" t="n">
-        <v>819.3634133321809</v>
+        <v>819.3634133321812</v>
       </c>
       <c r="M11" t="n">
-        <v>911.699671759988</v>
+        <v>911.6996717599882</v>
       </c>
       <c r="N11" t="n">
-        <v>926.451925601726</v>
+        <v>926.4519256017261</v>
       </c>
       <c r="O11" t="n">
-        <v>874.8222822620756</v>
+        <v>874.8222822620758</v>
       </c>
       <c r="P11" t="n">
-        <v>746.6405781818626</v>
+        <v>746.6405781818627</v>
       </c>
       <c r="Q11" t="n">
-        <v>560.6959796047433</v>
+        <v>560.6959796047435</v>
       </c>
       <c r="R11" t="n">
-        <v>326.1526670958453</v>
+        <v>326.1526670958454</v>
       </c>
       <c r="S11" t="n">
         <v>118.3165805256853</v>
@@ -31792,7 +31792,7 @@
         <v>22.72872545260283</v>
       </c>
       <c r="U11" t="n">
-        <v>0.415373623348538</v>
+        <v>0.4153736233485381</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,34 +31835,34 @@
         <v>26.83017261263014</v>
       </c>
       <c r="I12" t="n">
-        <v>95.64798138471689</v>
+        <v>95.6479813847169</v>
       </c>
       <c r="J12" t="n">
-        <v>262.4653715933995</v>
+        <v>262.4653715933996</v>
       </c>
       <c r="K12" t="n">
-        <v>448.5951249224358</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>273.0427956378705</v>
+        <v>603.191505535084</v>
       </c>
       <c r="M12" t="n">
-        <v>703.8960362541519</v>
+        <v>529.4268628381554</v>
       </c>
       <c r="N12" t="n">
-        <v>722.526069825774</v>
+        <v>722.5260698257741</v>
       </c>
       <c r="O12" t="n">
-        <v>660.9701969651893</v>
+        <v>660.9701969651894</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>530.4868552264719</v>
       </c>
       <c r="Q12" t="n">
-        <v>354.6164140408662</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>172.4831623544016</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>51.60117212283767</v>
@@ -31914,28 +31914,28 @@
         <v>20.70718374060945</v>
       </c>
       <c r="I13" t="n">
-        <v>70.0402492985031</v>
+        <v>70.04024929850311</v>
       </c>
       <c r="J13" t="n">
-        <v>164.6623394179136</v>
+        <v>164.6623394179137</v>
       </c>
       <c r="K13" t="n">
-        <v>270.590805935571</v>
+        <v>270.5908059355711</v>
       </c>
       <c r="L13" t="n">
         <v>346.2630704436879</v>
       </c>
       <c r="M13" t="n">
-        <v>365.0858581179227</v>
+        <v>365.0858581179228</v>
       </c>
       <c r="N13" t="n">
-        <v>356.4049324188945</v>
+        <v>356.4049324188946</v>
       </c>
       <c r="O13" t="n">
-        <v>329.1976408987685</v>
+        <v>329.1976408987686</v>
       </c>
       <c r="P13" t="n">
-        <v>281.6854524387196</v>
+        <v>281.6854524387197</v>
       </c>
       <c r="Q13" t="n">
         <v>195.0244063750036</v>
@@ -31944,10 +31944,10 @@
         <v>104.7216061155974</v>
       </c>
       <c r="S13" t="n">
-        <v>40.58862089033565</v>
+        <v>40.58862089033566</v>
       </c>
       <c r="T13" t="n">
-        <v>9.951305069618028</v>
+        <v>9.95130506961803</v>
       </c>
       <c r="U13" t="n">
         <v>0.1270379370589537</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.192170291856725</v>
+        <v>5.192170291856726</v>
       </c>
       <c r="H14" t="n">
-        <v>53.1743140014777</v>
+        <v>53.17431400147772</v>
       </c>
       <c r="I14" t="n">
         <v>200.1711451768066</v>
       </c>
       <c r="J14" t="n">
-        <v>440.6789633084752</v>
+        <v>440.6789633084753</v>
       </c>
       <c r="K14" t="n">
-        <v>660.4635317627705</v>
+        <v>660.4635317627707</v>
       </c>
       <c r="L14" t="n">
-        <v>819.3634133321809</v>
+        <v>819.3634133321812</v>
       </c>
       <c r="M14" t="n">
-        <v>911.699671759988</v>
+        <v>911.6996717599882</v>
       </c>
       <c r="N14" t="n">
-        <v>926.451925601726</v>
+        <v>926.4519256017261</v>
       </c>
       <c r="O14" t="n">
-        <v>874.8222822620756</v>
+        <v>874.8222822620758</v>
       </c>
       <c r="P14" t="n">
-        <v>746.6405781818626</v>
+        <v>746.6405781818627</v>
       </c>
       <c r="Q14" t="n">
-        <v>560.6959796047433</v>
+        <v>560.6959796047435</v>
       </c>
       <c r="R14" t="n">
-        <v>326.1526670958453</v>
+        <v>326.1526670958454</v>
       </c>
       <c r="S14" t="n">
         <v>118.3165805256853</v>
@@ -32029,7 +32029,7 @@
         <v>22.72872545260283</v>
       </c>
       <c r="U14" t="n">
-        <v>0.415373623348538</v>
+        <v>0.4153736233485381</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,34 +32072,34 @@
         <v>26.83017261263014</v>
       </c>
       <c r="I15" t="n">
-        <v>95.64798138471689</v>
+        <v>95.6479813847169</v>
       </c>
       <c r="J15" t="n">
-        <v>262.4653715933995</v>
+        <v>262.4653715933996</v>
       </c>
       <c r="K15" t="n">
-        <v>186.5710929682905</v>
+        <v>448.5951249224359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>703.8960362541519</v>
+        <v>683.3103026452884</v>
       </c>
       <c r="N15" t="n">
-        <v>722.526069825774</v>
+        <v>722.5260698257741</v>
       </c>
       <c r="O15" t="n">
-        <v>660.9701969651893</v>
+        <v>660.9701969651894</v>
       </c>
       <c r="P15" t="n">
-        <v>530.4868552264718</v>
+        <v>530.4868552264719</v>
       </c>
       <c r="Q15" t="n">
-        <v>354.6164140408662</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>172.4831623544016</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>51.60117212283767</v>
@@ -32151,28 +32151,28 @@
         <v>20.70718374060945</v>
       </c>
       <c r="I16" t="n">
-        <v>70.0402492985031</v>
+        <v>70.04024929850311</v>
       </c>
       <c r="J16" t="n">
-        <v>164.6623394179136</v>
+        <v>164.6623394179137</v>
       </c>
       <c r="K16" t="n">
-        <v>270.590805935571</v>
+        <v>270.5908059355711</v>
       </c>
       <c r="L16" t="n">
         <v>346.2630704436879</v>
       </c>
       <c r="M16" t="n">
-        <v>365.0858581179227</v>
+        <v>365.0858581179228</v>
       </c>
       <c r="N16" t="n">
-        <v>356.4049324188945</v>
+        <v>356.4049324188946</v>
       </c>
       <c r="O16" t="n">
-        <v>329.1976408987685</v>
+        <v>329.1976408987686</v>
       </c>
       <c r="P16" t="n">
-        <v>281.6854524387196</v>
+        <v>281.6854524387197</v>
       </c>
       <c r="Q16" t="n">
         <v>195.0244063750036</v>
@@ -32181,10 +32181,10 @@
         <v>104.7216061155974</v>
       </c>
       <c r="S16" t="n">
-        <v>40.58862089033565</v>
+        <v>40.58862089033566</v>
       </c>
       <c r="T16" t="n">
-        <v>9.951305069618028</v>
+        <v>9.95130506961803</v>
       </c>
       <c r="U16" t="n">
         <v>0.1270379370589537</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.192170291856725</v>
+        <v>5.192170291856726</v>
       </c>
       <c r="H17" t="n">
-        <v>53.1743140014777</v>
+        <v>53.17431400147772</v>
       </c>
       <c r="I17" t="n">
         <v>200.1711451768066</v>
       </c>
       <c r="J17" t="n">
-        <v>440.6789633084752</v>
+        <v>440.6789633084753</v>
       </c>
       <c r="K17" t="n">
-        <v>660.4635317627705</v>
+        <v>660.4635317627707</v>
       </c>
       <c r="L17" t="n">
-        <v>819.3634133321809</v>
+        <v>819.3634133321812</v>
       </c>
       <c r="M17" t="n">
-        <v>911.699671759988</v>
+        <v>911.6996717599882</v>
       </c>
       <c r="N17" t="n">
-        <v>926.451925601726</v>
+        <v>926.4519256017261</v>
       </c>
       <c r="O17" t="n">
-        <v>874.8222822620756</v>
+        <v>874.8222822620758</v>
       </c>
       <c r="P17" t="n">
-        <v>746.6405781818626</v>
+        <v>746.6405781818627</v>
       </c>
       <c r="Q17" t="n">
-        <v>560.6959796047433</v>
+        <v>560.6959796047435</v>
       </c>
       <c r="R17" t="n">
-        <v>326.1526670958453</v>
+        <v>326.1526670958454</v>
       </c>
       <c r="S17" t="n">
         <v>118.3165805256853</v>
@@ -32266,7 +32266,7 @@
         <v>22.72872545260283</v>
       </c>
       <c r="U17" t="n">
-        <v>0.415373623348538</v>
+        <v>0.4153736233485381</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,34 +32309,34 @@
         <v>26.83017261263014</v>
       </c>
       <c r="I18" t="n">
-        <v>95.64798138471689</v>
+        <v>95.6479813847169</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>126.9885716264841</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>448.5951249224359</v>
       </c>
       <c r="L18" t="n">
-        <v>603.1915055350839</v>
+        <v>603.191505535084</v>
       </c>
       <c r="M18" t="n">
-        <v>703.8960362541519</v>
+        <v>703.896036254152</v>
       </c>
       <c r="N18" t="n">
-        <v>722.526069825774</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>622.1287684759267</v>
+        <v>660.9701969651894</v>
       </c>
       <c r="P18" t="n">
-        <v>530.4868552264718</v>
+        <v>530.4868552264719</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>354.6164140408663</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>172.4831623544016</v>
       </c>
       <c r="S18" t="n">
         <v>51.60117212283767</v>
@@ -32388,28 +32388,28 @@
         <v>20.70718374060945</v>
       </c>
       <c r="I19" t="n">
-        <v>70.0402492985031</v>
+        <v>70.04024929850311</v>
       </c>
       <c r="J19" t="n">
-        <v>164.6623394179136</v>
+        <v>164.6623394179137</v>
       </c>
       <c r="K19" t="n">
-        <v>270.590805935571</v>
+        <v>270.5908059355711</v>
       </c>
       <c r="L19" t="n">
         <v>346.2630704436879</v>
       </c>
       <c r="M19" t="n">
-        <v>365.0858581179227</v>
+        <v>365.0858581179228</v>
       </c>
       <c r="N19" t="n">
-        <v>356.4049324188945</v>
+        <v>356.4049324188946</v>
       </c>
       <c r="O19" t="n">
-        <v>329.1976408987685</v>
+        <v>329.1976408987686</v>
       </c>
       <c r="P19" t="n">
-        <v>281.6854524387196</v>
+        <v>281.6854524387197</v>
       </c>
       <c r="Q19" t="n">
         <v>195.0244063750036</v>
@@ -32418,10 +32418,10 @@
         <v>104.7216061155974</v>
       </c>
       <c r="S19" t="n">
-        <v>40.58862089033565</v>
+        <v>40.58862089033566</v>
       </c>
       <c r="T19" t="n">
-        <v>9.951305069618028</v>
+        <v>9.95130506961803</v>
       </c>
       <c r="U19" t="n">
         <v>0.1270379370589537</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.192170291856725</v>
+        <v>5.192170291856726</v>
       </c>
       <c r="H20" t="n">
-        <v>53.1743140014777</v>
+        <v>53.17431400147772</v>
       </c>
       <c r="I20" t="n">
         <v>200.1711451768066</v>
       </c>
       <c r="J20" t="n">
-        <v>440.6789633084752</v>
+        <v>440.6789633084753</v>
       </c>
       <c r="K20" t="n">
-        <v>660.4635317627705</v>
+        <v>660.4635317627707</v>
       </c>
       <c r="L20" t="n">
-        <v>819.3634133321809</v>
+        <v>819.3634133321812</v>
       </c>
       <c r="M20" t="n">
-        <v>911.699671759988</v>
+        <v>911.6996717599882</v>
       </c>
       <c r="N20" t="n">
-        <v>926.451925601726</v>
+        <v>926.4519256017261</v>
       </c>
       <c r="O20" t="n">
-        <v>874.8222822620756</v>
+        <v>874.8222822620758</v>
       </c>
       <c r="P20" t="n">
-        <v>746.6405781818626</v>
+        <v>746.6405781818627</v>
       </c>
       <c r="Q20" t="n">
-        <v>560.6959796047433</v>
+        <v>560.6959796047435</v>
       </c>
       <c r="R20" t="n">
-        <v>326.1526670958453</v>
+        <v>326.1526670958454</v>
       </c>
       <c r="S20" t="n">
         <v>118.3165805256853</v>
@@ -32503,7 +32503,7 @@
         <v>22.72872545260283</v>
       </c>
       <c r="U20" t="n">
-        <v>0.415373623348538</v>
+        <v>0.4153736233485381</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,28 +32546,28 @@
         <v>26.83017261263014</v>
       </c>
       <c r="I21" t="n">
-        <v>95.64798138471689</v>
+        <v>95.6479813847169</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>262.4653715933996</v>
       </c>
       <c r="K21" t="n">
-        <v>448.5951249224358</v>
+        <v>448.5951249224359</v>
       </c>
       <c r="L21" t="n">
-        <v>603.1915055350839</v>
+        <v>603.191505535084</v>
       </c>
       <c r="M21" t="n">
-        <v>703.8960362541519</v>
+        <v>615.1856247022204</v>
       </c>
       <c r="N21" t="n">
-        <v>722.526069825774</v>
+        <v>722.5260698257741</v>
       </c>
       <c r="O21" t="n">
-        <v>311.3750825278496</v>
+        <v>660.9701969651894</v>
       </c>
       <c r="P21" t="n">
-        <v>530.4868552264718</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32625,28 +32625,28 @@
         <v>20.70718374060945</v>
       </c>
       <c r="I22" t="n">
-        <v>70.0402492985031</v>
+        <v>70.04024929850311</v>
       </c>
       <c r="J22" t="n">
-        <v>164.6623394179136</v>
+        <v>164.6623394179137</v>
       </c>
       <c r="K22" t="n">
-        <v>270.590805935571</v>
+        <v>270.5908059355711</v>
       </c>
       <c r="L22" t="n">
         <v>346.2630704436879</v>
       </c>
       <c r="M22" t="n">
-        <v>365.0858581179227</v>
+        <v>365.0858581179228</v>
       </c>
       <c r="N22" t="n">
-        <v>356.4049324188945</v>
+        <v>356.4049324188946</v>
       </c>
       <c r="O22" t="n">
-        <v>329.1976408987685</v>
+        <v>329.1976408987686</v>
       </c>
       <c r="P22" t="n">
-        <v>281.6854524387196</v>
+        <v>281.6854524387197</v>
       </c>
       <c r="Q22" t="n">
         <v>195.0244063750036</v>
@@ -32655,10 +32655,10 @@
         <v>104.7216061155974</v>
       </c>
       <c r="S22" t="n">
-        <v>40.58862089033565</v>
+        <v>40.58862089033566</v>
       </c>
       <c r="T22" t="n">
-        <v>9.951305069618028</v>
+        <v>9.95130506961803</v>
       </c>
       <c r="U22" t="n">
         <v>0.1270379370589537</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.192170291856725</v>
+        <v>5.192170291856726</v>
       </c>
       <c r="H23" t="n">
-        <v>53.1743140014777</v>
+        <v>53.17431400147772</v>
       </c>
       <c r="I23" t="n">
         <v>200.1711451768066</v>
       </c>
       <c r="J23" t="n">
-        <v>440.6789633084752</v>
+        <v>440.6789633084753</v>
       </c>
       <c r="K23" t="n">
-        <v>660.4635317627705</v>
+        <v>660.4635317627707</v>
       </c>
       <c r="L23" t="n">
-        <v>819.3634133321809</v>
+        <v>819.3634133321812</v>
       </c>
       <c r="M23" t="n">
-        <v>911.699671759988</v>
+        <v>911.6996717599882</v>
       </c>
       <c r="N23" t="n">
-        <v>926.451925601726</v>
+        <v>926.4519256017261</v>
       </c>
       <c r="O23" t="n">
-        <v>874.8222822620756</v>
+        <v>874.8222822620758</v>
       </c>
       <c r="P23" t="n">
-        <v>746.6405781818626</v>
+        <v>746.6405781818627</v>
       </c>
       <c r="Q23" t="n">
-        <v>560.6959796047433</v>
+        <v>560.6959796047435</v>
       </c>
       <c r="R23" t="n">
-        <v>326.1526670958453</v>
+        <v>326.1526670958454</v>
       </c>
       <c r="S23" t="n">
         <v>118.3165805256853</v>
@@ -32740,7 +32740,7 @@
         <v>22.72872545260283</v>
       </c>
       <c r="U23" t="n">
-        <v>0.415373623348538</v>
+        <v>0.4153736233485381</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,34 +32783,34 @@
         <v>26.83017261263014</v>
       </c>
       <c r="I24" t="n">
-        <v>95.64798138471689</v>
+        <v>95.6479813847169</v>
       </c>
       <c r="J24" t="n">
-        <v>262.4653715933995</v>
+        <v>262.4653715933996</v>
       </c>
       <c r="K24" t="n">
-        <v>283.6959695452143</v>
+        <v>448.5951249224359</v>
       </c>
       <c r="L24" t="n">
-        <v>603.1915055350839</v>
+        <v>603.191505535084</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>703.896036254152</v>
       </c>
       <c r="N24" t="n">
-        <v>722.526069825774</v>
+        <v>722.5260698257741</v>
       </c>
       <c r="O24" t="n">
-        <v>660.9701969651893</v>
+        <v>572.259785413258</v>
       </c>
       <c r="P24" t="n">
-        <v>530.4868552264718</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>354.6164140408662</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>172.4831623544016</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>51.60117212283767</v>
@@ -32862,28 +32862,28 @@
         <v>20.70718374060945</v>
       </c>
       <c r="I25" t="n">
-        <v>70.0402492985031</v>
+        <v>70.04024929850311</v>
       </c>
       <c r="J25" t="n">
-        <v>164.6623394179136</v>
+        <v>164.6623394179137</v>
       </c>
       <c r="K25" t="n">
-        <v>270.590805935571</v>
+        <v>270.5908059355711</v>
       </c>
       <c r="L25" t="n">
         <v>346.2630704436879</v>
       </c>
       <c r="M25" t="n">
-        <v>365.0858581179227</v>
+        <v>365.0858581179228</v>
       </c>
       <c r="N25" t="n">
-        <v>356.4049324188945</v>
+        <v>356.4049324188946</v>
       </c>
       <c r="O25" t="n">
-        <v>329.1976408987685</v>
+        <v>329.1976408987686</v>
       </c>
       <c r="P25" t="n">
-        <v>281.6854524387196</v>
+        <v>281.6854524387197</v>
       </c>
       <c r="Q25" t="n">
         <v>195.0244063750036</v>
@@ -32892,10 +32892,10 @@
         <v>104.7216061155974</v>
       </c>
       <c r="S25" t="n">
-        <v>40.58862089033565</v>
+        <v>40.58862089033566</v>
       </c>
       <c r="T25" t="n">
-        <v>9.951305069618028</v>
+        <v>9.95130506961803</v>
       </c>
       <c r="U25" t="n">
         <v>0.1270379370589537</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.192170291856725</v>
+        <v>5.192170291856726</v>
       </c>
       <c r="H26" t="n">
-        <v>53.1743140014777</v>
+        <v>53.17431400147772</v>
       </c>
       <c r="I26" t="n">
         <v>200.1711451768066</v>
       </c>
       <c r="J26" t="n">
-        <v>440.6789633084752</v>
+        <v>440.6789633084753</v>
       </c>
       <c r="K26" t="n">
-        <v>660.4635317627705</v>
+        <v>660.4635317627707</v>
       </c>
       <c r="L26" t="n">
-        <v>819.3634133321809</v>
+        <v>819.3634133321812</v>
       </c>
       <c r="M26" t="n">
-        <v>911.699671759988</v>
+        <v>911.6996717599882</v>
       </c>
       <c r="N26" t="n">
-        <v>926.451925601726</v>
+        <v>926.4519256017261</v>
       </c>
       <c r="O26" t="n">
-        <v>874.8222822620756</v>
+        <v>874.8222822620758</v>
       </c>
       <c r="P26" t="n">
-        <v>746.6405781818626</v>
+        <v>746.6405781818627</v>
       </c>
       <c r="Q26" t="n">
-        <v>560.6959796047433</v>
+        <v>560.6959796047435</v>
       </c>
       <c r="R26" t="n">
-        <v>326.1526670958453</v>
+        <v>326.1526670958454</v>
       </c>
       <c r="S26" t="n">
         <v>118.3165805256853</v>
@@ -32977,7 +32977,7 @@
         <v>22.72872545260283</v>
       </c>
       <c r="U26" t="n">
-        <v>0.415373623348538</v>
+        <v>0.4153736233485381</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,34 +33020,34 @@
         <v>26.83017261263014</v>
       </c>
       <c r="I27" t="n">
-        <v>95.64798138471689</v>
+        <v>95.6479813847169</v>
       </c>
       <c r="J27" t="n">
-        <v>262.4653715933995</v>
+        <v>262.4653715933996</v>
       </c>
       <c r="K27" t="n">
-        <v>448.5951249224358</v>
+        <v>448.5951249224359</v>
       </c>
       <c r="L27" t="n">
-        <v>603.1915055350839</v>
+        <v>603.191505535084</v>
       </c>
       <c r="M27" t="n">
-        <v>703.8960362541519</v>
+        <v>703.896036254152</v>
       </c>
       <c r="N27" t="n">
-        <v>392.3773599285607</v>
+        <v>633.8156582738426</v>
       </c>
       <c r="O27" t="n">
-        <v>660.9701969651893</v>
+        <v>660.9701969651894</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>354.6164140408662</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>172.4831623544016</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.60117212283767</v>
@@ -33099,28 +33099,28 @@
         <v>20.70718374060945</v>
       </c>
       <c r="I28" t="n">
-        <v>70.0402492985031</v>
+        <v>70.04024929850311</v>
       </c>
       <c r="J28" t="n">
-        <v>164.6623394179136</v>
+        <v>164.6623394179137</v>
       </c>
       <c r="K28" t="n">
-        <v>270.590805935571</v>
+        <v>270.5908059355711</v>
       </c>
       <c r="L28" t="n">
         <v>346.2630704436879</v>
       </c>
       <c r="M28" t="n">
-        <v>365.0858581179227</v>
+        <v>365.0858581179228</v>
       </c>
       <c r="N28" t="n">
-        <v>356.4049324188945</v>
+        <v>356.4049324188946</v>
       </c>
       <c r="O28" t="n">
-        <v>329.1976408987685</v>
+        <v>329.1976408987686</v>
       </c>
       <c r="P28" t="n">
-        <v>281.6854524387196</v>
+        <v>281.6854524387197</v>
       </c>
       <c r="Q28" t="n">
         <v>195.0244063750036</v>
@@ -33129,10 +33129,10 @@
         <v>104.7216061155974</v>
       </c>
       <c r="S28" t="n">
-        <v>40.58862089033565</v>
+        <v>40.58862089033566</v>
       </c>
       <c r="T28" t="n">
-        <v>9.951305069618028</v>
+        <v>9.95130506961803</v>
       </c>
       <c r="U28" t="n">
         <v>0.1270379370589537</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.192170291856725</v>
+        <v>5.192170291856726</v>
       </c>
       <c r="H29" t="n">
-        <v>53.1743140014777</v>
+        <v>53.17431400147772</v>
       </c>
       <c r="I29" t="n">
         <v>200.1711451768066</v>
       </c>
       <c r="J29" t="n">
-        <v>440.6789633084752</v>
+        <v>440.6789633084753</v>
       </c>
       <c r="K29" t="n">
-        <v>660.4635317627705</v>
+        <v>660.4635317627707</v>
       </c>
       <c r="L29" t="n">
-        <v>819.3634133321809</v>
+        <v>819.3634133321812</v>
       </c>
       <c r="M29" t="n">
-        <v>911.699671759988</v>
+        <v>911.6996717599882</v>
       </c>
       <c r="N29" t="n">
-        <v>926.451925601726</v>
+        <v>926.4519256017261</v>
       </c>
       <c r="O29" t="n">
-        <v>874.8222822620756</v>
+        <v>874.8222822620758</v>
       </c>
       <c r="P29" t="n">
-        <v>746.6405781818626</v>
+        <v>746.6405781818627</v>
       </c>
       <c r="Q29" t="n">
-        <v>560.6959796047433</v>
+        <v>560.6959796047435</v>
       </c>
       <c r="R29" t="n">
-        <v>326.1526670958453</v>
+        <v>326.1526670958454</v>
       </c>
       <c r="S29" t="n">
         <v>118.3165805256853</v>
@@ -33214,7 +33214,7 @@
         <v>22.72872545260283</v>
       </c>
       <c r="U29" t="n">
-        <v>0.415373623348538</v>
+        <v>0.4153736233485381</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,31 +33257,31 @@
         <v>26.83017261263014</v>
       </c>
       <c r="I30" t="n">
-        <v>95.64798138471689</v>
+        <v>95.6479813847169</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>262.4653715933996</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>448.5951249224359</v>
       </c>
       <c r="L30" t="n">
-        <v>603.1915055350839</v>
+        <v>603.191505535084</v>
       </c>
       <c r="M30" t="n">
-        <v>703.8960362541519</v>
+        <v>615.1856247022204</v>
       </c>
       <c r="N30" t="n">
-        <v>722.526069825774</v>
+        <v>722.5260698257741</v>
       </c>
       <c r="O30" t="n">
-        <v>660.9701969651893</v>
+        <v>660.9701969651894</v>
       </c>
       <c r="P30" t="n">
-        <v>277.0107867823641</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>354.6164140408662</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33336,28 +33336,28 @@
         <v>20.70718374060945</v>
       </c>
       <c r="I31" t="n">
-        <v>70.0402492985031</v>
+        <v>70.04024929850311</v>
       </c>
       <c r="J31" t="n">
-        <v>164.6623394179136</v>
+        <v>164.6623394179137</v>
       </c>
       <c r="K31" t="n">
-        <v>270.590805935571</v>
+        <v>270.5908059355711</v>
       </c>
       <c r="L31" t="n">
         <v>346.2630704436879</v>
       </c>
       <c r="M31" t="n">
-        <v>365.0858581179227</v>
+        <v>365.0858581179228</v>
       </c>
       <c r="N31" t="n">
-        <v>356.4049324188945</v>
+        <v>356.4049324188946</v>
       </c>
       <c r="O31" t="n">
-        <v>329.1976408987685</v>
+        <v>329.1976408987686</v>
       </c>
       <c r="P31" t="n">
-        <v>281.6854524387196</v>
+        <v>281.6854524387197</v>
       </c>
       <c r="Q31" t="n">
         <v>195.0244063750036</v>
@@ -33366,10 +33366,10 @@
         <v>104.7216061155974</v>
       </c>
       <c r="S31" t="n">
-        <v>40.58862089033565</v>
+        <v>40.58862089033566</v>
       </c>
       <c r="T31" t="n">
-        <v>9.951305069618028</v>
+        <v>9.95130506961803</v>
       </c>
       <c r="U31" t="n">
         <v>0.1270379370589537</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.192170291856725</v>
+        <v>5.192170291856726</v>
       </c>
       <c r="H32" t="n">
-        <v>53.1743140014777</v>
+        <v>53.17431400147772</v>
       </c>
       <c r="I32" t="n">
         <v>200.1711451768066</v>
       </c>
       <c r="J32" t="n">
-        <v>440.6789633084752</v>
+        <v>440.6789633084753</v>
       </c>
       <c r="K32" t="n">
-        <v>660.4635317627705</v>
+        <v>660.4635317627707</v>
       </c>
       <c r="L32" t="n">
-        <v>819.3634133321809</v>
+        <v>819.3634133321812</v>
       </c>
       <c r="M32" t="n">
-        <v>911.699671759988</v>
+        <v>911.6996717599882</v>
       </c>
       <c r="N32" t="n">
-        <v>926.451925601726</v>
+        <v>926.4519256017261</v>
       </c>
       <c r="O32" t="n">
-        <v>874.8222822620756</v>
+        <v>874.8222822620758</v>
       </c>
       <c r="P32" t="n">
-        <v>746.6405781818626</v>
+        <v>746.6405781818627</v>
       </c>
       <c r="Q32" t="n">
-        <v>560.6959796047433</v>
+        <v>560.6959796047435</v>
       </c>
       <c r="R32" t="n">
-        <v>326.1526670958453</v>
+        <v>326.1526670958454</v>
       </c>
       <c r="S32" t="n">
         <v>118.3165805256853</v>
@@ -33451,7 +33451,7 @@
         <v>22.72872545260283</v>
       </c>
       <c r="U32" t="n">
-        <v>0.415373623348538</v>
+        <v>0.4153736233485381</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,28 +33494,28 @@
         <v>26.83017261263014</v>
       </c>
       <c r="I33" t="n">
-        <v>95.64798138471689</v>
+        <v>95.6479813847169</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>262.4653715933996</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>448.5951249224359</v>
       </c>
       <c r="L33" t="n">
-        <v>603.1915055350839</v>
+        <v>603.191505535084</v>
       </c>
       <c r="M33" t="n">
-        <v>703.8960362541519</v>
+        <v>615.1856247022204</v>
       </c>
       <c r="N33" t="n">
-        <v>722.526069825774</v>
+        <v>722.5260698257741</v>
       </c>
       <c r="O33" t="n">
-        <v>660.9701969651893</v>
+        <v>660.9701969651894</v>
       </c>
       <c r="P33" t="n">
-        <v>491.6454267372089</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33573,28 +33573,28 @@
         <v>20.70718374060945</v>
       </c>
       <c r="I34" t="n">
-        <v>70.0402492985031</v>
+        <v>70.04024929850311</v>
       </c>
       <c r="J34" t="n">
-        <v>164.6623394179136</v>
+        <v>164.6623394179137</v>
       </c>
       <c r="K34" t="n">
-        <v>270.590805935571</v>
+        <v>270.5908059355711</v>
       </c>
       <c r="L34" t="n">
         <v>346.2630704436879</v>
       </c>
       <c r="M34" t="n">
-        <v>365.0858581179227</v>
+        <v>365.0858581179228</v>
       </c>
       <c r="N34" t="n">
-        <v>356.4049324188945</v>
+        <v>356.4049324188946</v>
       </c>
       <c r="O34" t="n">
-        <v>329.1976408987685</v>
+        <v>329.1976408987686</v>
       </c>
       <c r="P34" t="n">
-        <v>281.6854524387196</v>
+        <v>281.6854524387197</v>
       </c>
       <c r="Q34" t="n">
         <v>195.0244063750036</v>
@@ -33603,10 +33603,10 @@
         <v>104.7216061155974</v>
       </c>
       <c r="S34" t="n">
-        <v>40.58862089033565</v>
+        <v>40.58862089033566</v>
       </c>
       <c r="T34" t="n">
-        <v>9.951305069618028</v>
+        <v>9.95130506961803</v>
       </c>
       <c r="U34" t="n">
         <v>0.1270379370589537</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.192170291856725</v>
+        <v>5.192170291856726</v>
       </c>
       <c r="H35" t="n">
-        <v>53.1743140014777</v>
+        <v>53.17431400147772</v>
       </c>
       <c r="I35" t="n">
         <v>200.1711451768066</v>
       </c>
       <c r="J35" t="n">
-        <v>440.6789633084752</v>
+        <v>440.6789633084753</v>
       </c>
       <c r="K35" t="n">
-        <v>660.4635317627705</v>
+        <v>660.4635317627707</v>
       </c>
       <c r="L35" t="n">
-        <v>819.3634133321809</v>
+        <v>819.3634133321812</v>
       </c>
       <c r="M35" t="n">
-        <v>911.699671759988</v>
+        <v>911.6996717599882</v>
       </c>
       <c r="N35" t="n">
-        <v>926.451925601726</v>
+        <v>926.4519256017261</v>
       </c>
       <c r="O35" t="n">
-        <v>874.8222822620756</v>
+        <v>874.8222822620758</v>
       </c>
       <c r="P35" t="n">
-        <v>746.6405781818626</v>
+        <v>746.6405781818627</v>
       </c>
       <c r="Q35" t="n">
-        <v>560.6959796047433</v>
+        <v>560.6959796047435</v>
       </c>
       <c r="R35" t="n">
-        <v>326.1526670958453</v>
+        <v>326.1526670958454</v>
       </c>
       <c r="S35" t="n">
         <v>118.3165805256853</v>
@@ -33688,7 +33688,7 @@
         <v>22.72872545260283</v>
       </c>
       <c r="U35" t="n">
-        <v>0.415373623348538</v>
+        <v>0.4153736233485381</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,34 +33731,34 @@
         <v>26.83017261263014</v>
       </c>
       <c r="I36" t="n">
-        <v>95.64798138471689</v>
+        <v>95.6479813847169</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>262.4653715933996</v>
       </c>
       <c r="K36" t="n">
-        <v>254.0741599519552</v>
+        <v>448.5951249224359</v>
       </c>
       <c r="L36" t="n">
-        <v>603.1915055350839</v>
+        <v>603.191505535084</v>
       </c>
       <c r="M36" t="n">
-        <v>703.8960362541519</v>
+        <v>703.896036254152</v>
       </c>
       <c r="N36" t="n">
-        <v>722.526069825774</v>
+        <v>722.5260698257741</v>
       </c>
       <c r="O36" t="n">
-        <v>660.9701969651893</v>
+        <v>175.7473376011162</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>530.4868552264719</v>
       </c>
       <c r="Q36" t="n">
-        <v>354.6164140408662</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>172.4831623544016</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.60117212283767</v>
@@ -33810,28 +33810,28 @@
         <v>20.70718374060945</v>
       </c>
       <c r="I37" t="n">
-        <v>70.0402492985031</v>
+        <v>70.04024929850311</v>
       </c>
       <c r="J37" t="n">
-        <v>164.6623394179136</v>
+        <v>164.6623394179137</v>
       </c>
       <c r="K37" t="n">
-        <v>270.590805935571</v>
+        <v>270.5908059355711</v>
       </c>
       <c r="L37" t="n">
         <v>346.2630704436879</v>
       </c>
       <c r="M37" t="n">
-        <v>365.0858581179227</v>
+        <v>365.0858581179228</v>
       </c>
       <c r="N37" t="n">
-        <v>356.4049324188945</v>
+        <v>356.4049324188946</v>
       </c>
       <c r="O37" t="n">
-        <v>329.1976408987685</v>
+        <v>329.1976408987686</v>
       </c>
       <c r="P37" t="n">
-        <v>281.6854524387196</v>
+        <v>281.6854524387197</v>
       </c>
       <c r="Q37" t="n">
         <v>195.0244063750036</v>
@@ -33840,10 +33840,10 @@
         <v>104.7216061155974</v>
       </c>
       <c r="S37" t="n">
-        <v>40.58862089033565</v>
+        <v>40.58862089033566</v>
       </c>
       <c r="T37" t="n">
-        <v>9.951305069618028</v>
+        <v>9.95130506961803</v>
       </c>
       <c r="U37" t="n">
         <v>0.1270379370589537</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.192170291856725</v>
+        <v>5.192170291856726</v>
       </c>
       <c r="H38" t="n">
-        <v>53.1743140014777</v>
+        <v>53.17431400147772</v>
       </c>
       <c r="I38" t="n">
         <v>200.1711451768066</v>
       </c>
       <c r="J38" t="n">
-        <v>440.6789633084752</v>
+        <v>440.6789633084753</v>
       </c>
       <c r="K38" t="n">
-        <v>660.4635317627705</v>
+        <v>660.4635317627707</v>
       </c>
       <c r="L38" t="n">
-        <v>819.3634133321809</v>
+        <v>819.3634133321812</v>
       </c>
       <c r="M38" t="n">
-        <v>911.699671759988</v>
+        <v>911.6996717599882</v>
       </c>
       <c r="N38" t="n">
-        <v>926.451925601726</v>
+        <v>926.4519256017261</v>
       </c>
       <c r="O38" t="n">
-        <v>874.8222822620756</v>
+        <v>874.8222822620758</v>
       </c>
       <c r="P38" t="n">
-        <v>746.6405781818626</v>
+        <v>746.6405781818627</v>
       </c>
       <c r="Q38" t="n">
-        <v>560.6959796047433</v>
+        <v>560.6959796047435</v>
       </c>
       <c r="R38" t="n">
-        <v>326.1526670958453</v>
+        <v>326.1526670958454</v>
       </c>
       <c r="S38" t="n">
         <v>118.3165805256853</v>
@@ -33925,7 +33925,7 @@
         <v>22.72872545260283</v>
       </c>
       <c r="U38" t="n">
-        <v>0.415373623348538</v>
+        <v>0.4153736233485381</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,28 +33968,28 @@
         <v>26.83017261263014</v>
       </c>
       <c r="I39" t="n">
-        <v>95.64798138471689</v>
+        <v>95.6479813847169</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>262.4653715933996</v>
       </c>
       <c r="K39" t="n">
-        <v>448.5951249224358</v>
+        <v>448.5951249224359</v>
       </c>
       <c r="L39" t="n">
-        <v>603.1915055350839</v>
+        <v>603.191505535084</v>
       </c>
       <c r="M39" t="n">
-        <v>354.3009218168122</v>
+        <v>703.896036254152</v>
       </c>
       <c r="N39" t="n">
-        <v>722.526069825774</v>
+        <v>722.5260698257741</v>
       </c>
       <c r="O39" t="n">
-        <v>660.9701969651893</v>
+        <v>175.7473376011162</v>
       </c>
       <c r="P39" t="n">
-        <v>530.4868552264718</v>
+        <v>530.4868552264719</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34047,28 +34047,28 @@
         <v>20.70718374060945</v>
       </c>
       <c r="I40" t="n">
-        <v>70.0402492985031</v>
+        <v>70.04024929850311</v>
       </c>
       <c r="J40" t="n">
-        <v>164.6623394179136</v>
+        <v>164.6623394179137</v>
       </c>
       <c r="K40" t="n">
-        <v>270.590805935571</v>
+        <v>270.5908059355711</v>
       </c>
       <c r="L40" t="n">
         <v>346.2630704436879</v>
       </c>
       <c r="M40" t="n">
-        <v>365.0858581179227</v>
+        <v>365.0858581179228</v>
       </c>
       <c r="N40" t="n">
-        <v>356.4049324188945</v>
+        <v>356.4049324188946</v>
       </c>
       <c r="O40" t="n">
-        <v>329.1976408987685</v>
+        <v>329.1976408987686</v>
       </c>
       <c r="P40" t="n">
-        <v>281.6854524387196</v>
+        <v>281.6854524387197</v>
       </c>
       <c r="Q40" t="n">
         <v>195.0244063750036</v>
@@ -34077,10 +34077,10 @@
         <v>104.7216061155974</v>
       </c>
       <c r="S40" t="n">
-        <v>40.58862089033565</v>
+        <v>40.58862089033566</v>
       </c>
       <c r="T40" t="n">
-        <v>9.951305069618028</v>
+        <v>9.95130506961803</v>
       </c>
       <c r="U40" t="n">
         <v>0.1270379370589537</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.192170291856725</v>
+        <v>5.192170291856726</v>
       </c>
       <c r="H41" t="n">
-        <v>53.1743140014777</v>
+        <v>53.17431400147772</v>
       </c>
       <c r="I41" t="n">
         <v>200.1711451768066</v>
       </c>
       <c r="J41" t="n">
-        <v>440.6789633084752</v>
+        <v>440.6789633084753</v>
       </c>
       <c r="K41" t="n">
-        <v>660.4635317627705</v>
+        <v>660.4635317627707</v>
       </c>
       <c r="L41" t="n">
-        <v>819.3634133321809</v>
+        <v>819.3634133321812</v>
       </c>
       <c r="M41" t="n">
-        <v>911.699671759988</v>
+        <v>911.6996717599882</v>
       </c>
       <c r="N41" t="n">
-        <v>926.451925601726</v>
+        <v>926.4519256017261</v>
       </c>
       <c r="O41" t="n">
-        <v>874.8222822620756</v>
+        <v>874.8222822620758</v>
       </c>
       <c r="P41" t="n">
-        <v>746.6405781818626</v>
+        <v>746.6405781818627</v>
       </c>
       <c r="Q41" t="n">
-        <v>560.6959796047433</v>
+        <v>560.6959796047435</v>
       </c>
       <c r="R41" t="n">
-        <v>326.1526670958453</v>
+        <v>326.1526670958454</v>
       </c>
       <c r="S41" t="n">
         <v>118.3165805256853</v>
@@ -34162,7 +34162,7 @@
         <v>22.72872545260283</v>
       </c>
       <c r="U41" t="n">
-        <v>0.415373623348538</v>
+        <v>0.4153736233485381</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,34 +34205,34 @@
         <v>26.83017261263014</v>
       </c>
       <c r="I42" t="n">
-        <v>95.64798138471689</v>
+        <v>95.6479813847169</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>262.4653715933996</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>448.5951249224359</v>
       </c>
       <c r="L42" t="n">
-        <v>537.5464186553833</v>
+        <v>603.191505535084</v>
       </c>
       <c r="M42" t="n">
-        <v>703.8960362541519</v>
+        <v>703.896036254152</v>
       </c>
       <c r="N42" t="n">
-        <v>722.526069825774</v>
+        <v>722.5260698257741</v>
       </c>
       <c r="O42" t="n">
-        <v>660.9701969651893</v>
+        <v>572.259785413258</v>
       </c>
       <c r="P42" t="n">
-        <v>530.4868552264718</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>172.4831623544016</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.60117212283767</v>
@@ -34284,28 +34284,28 @@
         <v>20.70718374060945</v>
       </c>
       <c r="I43" t="n">
-        <v>70.0402492985031</v>
+        <v>70.04024929850311</v>
       </c>
       <c r="J43" t="n">
-        <v>164.6623394179136</v>
+        <v>164.6623394179137</v>
       </c>
       <c r="K43" t="n">
-        <v>270.590805935571</v>
+        <v>270.5908059355711</v>
       </c>
       <c r="L43" t="n">
         <v>346.2630704436879</v>
       </c>
       <c r="M43" t="n">
-        <v>365.0858581179227</v>
+        <v>365.0858581179228</v>
       </c>
       <c r="N43" t="n">
-        <v>356.4049324188945</v>
+        <v>356.4049324188946</v>
       </c>
       <c r="O43" t="n">
-        <v>329.1976408987685</v>
+        <v>329.1976408987686</v>
       </c>
       <c r="P43" t="n">
-        <v>281.6854524387196</v>
+        <v>281.6854524387197</v>
       </c>
       <c r="Q43" t="n">
         <v>195.0244063750036</v>
@@ -34314,10 +34314,10 @@
         <v>104.7216061155974</v>
       </c>
       <c r="S43" t="n">
-        <v>40.58862089033565</v>
+        <v>40.58862089033566</v>
       </c>
       <c r="T43" t="n">
-        <v>9.951305069618028</v>
+        <v>9.95130506961803</v>
       </c>
       <c r="U43" t="n">
         <v>0.1270379370589537</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.192170291856725</v>
+        <v>5.192170291856726</v>
       </c>
       <c r="H44" t="n">
-        <v>53.1743140014777</v>
+        <v>53.17431400147772</v>
       </c>
       <c r="I44" t="n">
         <v>200.1711451768066</v>
       </c>
       <c r="J44" t="n">
-        <v>440.6789633084752</v>
+        <v>440.6789633084753</v>
       </c>
       <c r="K44" t="n">
-        <v>660.4635317627705</v>
+        <v>660.4635317627707</v>
       </c>
       <c r="L44" t="n">
-        <v>819.3634133321809</v>
+        <v>819.3634133321812</v>
       </c>
       <c r="M44" t="n">
-        <v>911.699671759988</v>
+        <v>911.6996717599882</v>
       </c>
       <c r="N44" t="n">
-        <v>926.451925601726</v>
+        <v>926.4519256017261</v>
       </c>
       <c r="O44" t="n">
-        <v>874.8222822620756</v>
+        <v>874.8222822620758</v>
       </c>
       <c r="P44" t="n">
-        <v>746.6405781818626</v>
+        <v>746.6405781818627</v>
       </c>
       <c r="Q44" t="n">
-        <v>560.6959796047433</v>
+        <v>560.6959796047435</v>
       </c>
       <c r="R44" t="n">
-        <v>326.1526670958453</v>
+        <v>326.1526670958454</v>
       </c>
       <c r="S44" t="n">
         <v>118.3165805256853</v>
@@ -34399,7 +34399,7 @@
         <v>22.72872545260283</v>
       </c>
       <c r="U44" t="n">
-        <v>0.415373623348538</v>
+        <v>0.4153736233485381</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,34 +34442,34 @@
         <v>26.83017261263014</v>
       </c>
       <c r="I45" t="n">
-        <v>95.64798138471689</v>
+        <v>95.6479813847169</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>262.4653715933996</v>
       </c>
       <c r="K45" t="n">
-        <v>448.5951249224358</v>
+        <v>448.5951249224359</v>
       </c>
       <c r="L45" t="n">
-        <v>530.5320452732064</v>
+        <v>603.191505535084</v>
       </c>
       <c r="M45" t="n">
-        <v>703.8960362541519</v>
+        <v>703.896036254152</v>
       </c>
       <c r="N45" t="n">
-        <v>722.526069825774</v>
+        <v>722.5260698257741</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>175.7473376011162</v>
       </c>
       <c r="P45" t="n">
-        <v>530.4868552264718</v>
+        <v>530.4868552264719</v>
       </c>
       <c r="Q45" t="n">
-        <v>354.6164140408662</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>172.4831623544016</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.60117212283767</v>
@@ -34521,28 +34521,28 @@
         <v>20.70718374060945</v>
       </c>
       <c r="I46" t="n">
-        <v>70.0402492985031</v>
+        <v>70.04024929850311</v>
       </c>
       <c r="J46" t="n">
-        <v>164.6623394179136</v>
+        <v>164.6623394179137</v>
       </c>
       <c r="K46" t="n">
-        <v>270.590805935571</v>
+        <v>270.5908059355711</v>
       </c>
       <c r="L46" t="n">
         <v>346.2630704436879</v>
       </c>
       <c r="M46" t="n">
-        <v>365.0858581179227</v>
+        <v>365.0858581179228</v>
       </c>
       <c r="N46" t="n">
-        <v>356.4049324188945</v>
+        <v>356.4049324188946</v>
       </c>
       <c r="O46" t="n">
-        <v>329.1976408987685</v>
+        <v>329.1976408987686</v>
       </c>
       <c r="P46" t="n">
-        <v>281.6854524387196</v>
+        <v>281.6854524387197</v>
       </c>
       <c r="Q46" t="n">
         <v>195.0244063750036</v>
@@ -34551,10 +34551,10 @@
         <v>104.7216061155974</v>
       </c>
       <c r="S46" t="n">
-        <v>40.58862089033565</v>
+        <v>40.58862089033566</v>
       </c>
       <c r="T46" t="n">
-        <v>9.951305069618028</v>
+        <v>9.95130506961803</v>
       </c>
       <c r="U46" t="n">
         <v>0.1270379370589537</v>
@@ -34790,13 +34790,13 @@
         <v>263.2420339516666</v>
       </c>
       <c r="O3" t="n">
-        <v>2.459170114873313</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P3" t="n">
-        <v>193.9407825031299</v>
+        <v>9.770660483715774</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.41420694903812</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34954,7 +34954,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L6" t="n">
         <v>248.6418854471727</v>
@@ -35024,16 +35024,16 @@
         <v>276.1565137023555</v>
       </c>
       <c r="N6" t="n">
-        <v>100.6082676511396</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O6" t="n">
-        <v>269.1887005891756</v>
+        <v>74.01440144649911</v>
       </c>
       <c r="P6" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,13 +35103,13 @@
         <v>49.4834113647894</v>
       </c>
       <c r="N7" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O7" t="n">
         <v>33.51153056421936</v>
       </c>
       <c r="P7" t="n">
-        <v>4.916638815831902</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>259.6330587817889</v>
+        <v>428.7296739538627</v>
       </c>
       <c r="K11" t="n">
-        <v>440.3736807177899</v>
+        <v>666.2210841181582</v>
       </c>
       <c r="L11" t="n">
-        <v>583.5969983621937</v>
+        <v>583.596998362194</v>
       </c>
       <c r="M11" t="n">
-        <v>681.3534385327152</v>
+        <v>681.3534385327155</v>
       </c>
       <c r="N11" t="n">
         <v>697.0388620051351</v>
       </c>
       <c r="O11" t="n">
-        <v>1025.524252103134</v>
+        <v>644.724070840389</v>
       </c>
       <c r="P11" t="n">
         <v>515.4075824265931</v>
       </c>
       <c r="Q11" t="n">
-        <v>352.5341270399916</v>
+        <v>338.3902897302939</v>
       </c>
       <c r="R11" t="n">
-        <v>110.5671292817132</v>
+        <v>110.5671292817133</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>135.6277449267328</v>
+        <v>135.6277449267329</v>
       </c>
       <c r="K12" t="n">
-        <v>310.7536859480768</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>134.4884158579963</v>
+        <v>464.6371257552099</v>
       </c>
       <c r="M12" t="n">
-        <v>561.7620023321335</v>
+        <v>387.2928289161371</v>
       </c>
       <c r="N12" t="n">
-        <v>591.1843577424407</v>
+        <v>591.1843577424409</v>
       </c>
       <c r="O12" t="n">
-        <v>518.3739525207449</v>
+        <v>518.373952520745</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>396.5124478121417</v>
       </c>
       <c r="Q12" t="n">
-        <v>214.6346399548447</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>26.80365839043765</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>71.30315930124087</v>
+        <v>71.3031593012409</v>
       </c>
       <c r="K13" t="n">
         <v>248.3213141096882</v>
       </c>
       <c r="L13" t="n">
-        <v>373.853095704004</v>
+        <v>373.8530957040041</v>
       </c>
       <c r="M13" t="n">
-        <v>404.6697350797633</v>
+        <v>404.6697350797634</v>
       </c>
       <c r="N13" t="n">
-        <v>400.5371047981231</v>
+        <v>400.5371047981232</v>
       </c>
       <c r="O13" t="n">
         <v>353.7827688128082</v>
       </c>
       <c r="P13" t="n">
-        <v>278.9640117036131</v>
+        <v>278.9640117036132</v>
       </c>
       <c r="Q13" t="n">
-        <v>108.8623631233092</v>
+        <v>108.8623631233068</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>259.6330587817889</v>
+        <v>259.633058781789</v>
       </c>
       <c r="K14" t="n">
-        <v>440.3736807177899</v>
+        <v>440.3736807177901</v>
       </c>
       <c r="L14" t="n">
-        <v>583.5969983621937</v>
+        <v>583.596998362194</v>
       </c>
       <c r="M14" t="n">
-        <v>681.3534385327152</v>
+        <v>681.3534385327155</v>
       </c>
       <c r="N14" t="n">
         <v>697.0388620051351</v>
       </c>
       <c r="O14" t="n">
-        <v>827.353098752928</v>
+        <v>644.724070840389</v>
       </c>
       <c r="P14" t="n">
-        <v>515.4075824265931</v>
+        <v>837.2062905980758</v>
       </c>
       <c r="Q14" t="n">
-        <v>550.7052803901986</v>
+        <v>411.5356001312529</v>
       </c>
       <c r="R14" t="n">
-        <v>110.5671292817132</v>
+        <v>110.5671292817133</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>135.6277449267328</v>
+        <v>135.6277449267329</v>
       </c>
       <c r="K15" t="n">
-        <v>48.7296539939315</v>
+        <v>310.7536859480769</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>561.7620023321335</v>
+        <v>541.17626872327</v>
       </c>
       <c r="N15" t="n">
-        <v>591.1843577424407</v>
+        <v>591.1843577424409</v>
       </c>
       <c r="O15" t="n">
-        <v>518.3739525207449</v>
+        <v>518.373952520745</v>
       </c>
       <c r="P15" t="n">
-        <v>396.5124478121415</v>
+        <v>396.5124478121417</v>
       </c>
       <c r="Q15" t="n">
-        <v>214.6346399548447</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>26.80365839043765</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>71.30315930124087</v>
+        <v>71.3031593012409</v>
       </c>
       <c r="K16" t="n">
         <v>248.3213141096882</v>
       </c>
       <c r="L16" t="n">
-        <v>373.853095704004</v>
+        <v>373.8530957040041</v>
       </c>
       <c r="M16" t="n">
-        <v>404.6697350797633</v>
+        <v>404.6697350797634</v>
       </c>
       <c r="N16" t="n">
-        <v>400.5371047981231</v>
+        <v>400.5371047981232</v>
       </c>
       <c r="O16" t="n">
         <v>353.7827688128082</v>
       </c>
       <c r="P16" t="n">
-        <v>278.9640117036131</v>
+        <v>278.9640117036132</v>
       </c>
       <c r="Q16" t="n">
         <v>108.8623631233092</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>259.6330587817889</v>
+        <v>259.633058781789</v>
       </c>
       <c r="K17" t="n">
-        <v>513.518991118751</v>
+        <v>440.3736807177901</v>
       </c>
       <c r="L17" t="n">
-        <v>583.5969983621937</v>
+        <v>583.596998362194</v>
       </c>
       <c r="M17" t="n">
-        <v>681.3534385327152</v>
+        <v>681.3534385327155</v>
       </c>
       <c r="N17" t="n">
         <v>697.0388620051351</v>
       </c>
       <c r="O17" t="n">
-        <v>644.7240708403889</v>
+        <v>644.724070840389</v>
       </c>
       <c r="P17" t="n">
-        <v>837.2062905980756</v>
+        <v>837.2062905980758</v>
       </c>
       <c r="Q17" t="n">
-        <v>338.3902897302938</v>
+        <v>411.5356001312529</v>
       </c>
       <c r="R17" t="n">
-        <v>110.5671292817132</v>
+        <v>110.5671292817133</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.1509449598174228</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>310.7536859480769</v>
       </c>
       <c r="L18" t="n">
-        <v>464.6371257552098</v>
+        <v>464.6371257552099</v>
       </c>
       <c r="M18" t="n">
-        <v>561.7620023321335</v>
+        <v>561.7620023321338</v>
       </c>
       <c r="N18" t="n">
-        <v>591.1843577424407</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>479.5325240314822</v>
+        <v>518.373952520745</v>
       </c>
       <c r="P18" t="n">
-        <v>396.5124478121415</v>
+        <v>396.5124478121417</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>214.6346399548448</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>26.80365839043768</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>71.30315930124087</v>
+        <v>71.3031593012409</v>
       </c>
       <c r="K19" t="n">
         <v>248.3213141096882</v>
       </c>
       <c r="L19" t="n">
-        <v>373.853095704004</v>
+        <v>373.8530957040041</v>
       </c>
       <c r="M19" t="n">
-        <v>404.6697350797633</v>
+        <v>404.6697350797634</v>
       </c>
       <c r="N19" t="n">
-        <v>400.5371047981231</v>
+        <v>400.5371047981232</v>
       </c>
       <c r="O19" t="n">
         <v>353.7827688128082</v>
       </c>
       <c r="P19" t="n">
-        <v>278.9640117036131</v>
+        <v>278.9640117036132</v>
       </c>
       <c r="Q19" t="n">
         <v>108.8623631233092</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>259.6330587817889</v>
+        <v>259.633058781789</v>
       </c>
       <c r="K20" t="n">
-        <v>440.3736807177899</v>
+        <v>764.5190932889549</v>
       </c>
       <c r="L20" t="n">
-        <v>597.7408356718918</v>
+        <v>583.596998362194</v>
       </c>
       <c r="M20" t="n">
-        <v>681.3534385327152</v>
+        <v>681.3534385327155</v>
       </c>
       <c r="N20" t="n">
         <v>697.0388620051351</v>
       </c>
       <c r="O20" t="n">
-        <v>1025.524252103134</v>
+        <v>715.5226768416667</v>
       </c>
       <c r="P20" t="n">
         <v>515.4075824265931</v>
       </c>
       <c r="Q20" t="n">
-        <v>338.3902897302938</v>
+        <v>338.3902897302939</v>
       </c>
       <c r="R20" t="n">
-        <v>110.5671292817132</v>
+        <v>110.5671292817133</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>135.6277449267329</v>
       </c>
       <c r="K21" t="n">
-        <v>310.7536859480768</v>
+        <v>310.7536859480769</v>
       </c>
       <c r="L21" t="n">
-        <v>464.6371257552098</v>
+        <v>464.6371257552099</v>
       </c>
       <c r="M21" t="n">
-        <v>561.7620023321335</v>
+        <v>473.051590780202</v>
       </c>
       <c r="N21" t="n">
-        <v>591.1843577424407</v>
+        <v>591.1843577424409</v>
       </c>
       <c r="O21" t="n">
-        <v>168.7788380834052</v>
+        <v>518.373952520745</v>
       </c>
       <c r="P21" t="n">
-        <v>396.5124478121415</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>71.30315930124087</v>
+        <v>71.3031593012409</v>
       </c>
       <c r="K22" t="n">
         <v>248.3213141096882</v>
       </c>
       <c r="L22" t="n">
-        <v>373.853095704004</v>
+        <v>373.8530957040041</v>
       </c>
       <c r="M22" t="n">
-        <v>404.6697350797633</v>
+        <v>404.6697350797634</v>
       </c>
       <c r="N22" t="n">
-        <v>400.5371047981231</v>
+        <v>400.5371047981232</v>
       </c>
       <c r="O22" t="n">
         <v>353.7827688128082</v>
       </c>
       <c r="P22" t="n">
-        <v>278.9640117036131</v>
+        <v>278.9640117036132</v>
       </c>
       <c r="Q22" t="n">
         <v>108.8623631233092</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>259.6330587817889</v>
+        <v>259.633058781789</v>
       </c>
       <c r="K23" t="n">
-        <v>623.0027086303284</v>
+        <v>513.5189911187505</v>
       </c>
       <c r="L23" t="n">
-        <v>583.5969983621937</v>
+        <v>583.596998362194</v>
       </c>
       <c r="M23" t="n">
-        <v>681.3534385327152</v>
+        <v>681.3534385327155</v>
       </c>
       <c r="N23" t="n">
         <v>697.0388620051351</v>
       </c>
       <c r="O23" t="n">
-        <v>644.7240708403889</v>
+        <v>644.724070840389</v>
       </c>
       <c r="P23" t="n">
-        <v>515.4075824265931</v>
+        <v>837.2062905980758</v>
       </c>
       <c r="Q23" t="n">
-        <v>550.7052803901986</v>
+        <v>338.3902897302939</v>
       </c>
       <c r="R23" t="n">
-        <v>110.5671292817132</v>
+        <v>110.5671292817133</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>135.6277449267328</v>
+        <v>135.6277449267329</v>
       </c>
       <c r="K24" t="n">
-        <v>145.8545305708553</v>
+        <v>310.7536859480769</v>
       </c>
       <c r="L24" t="n">
-        <v>464.6371257552098</v>
+        <v>464.6371257552099</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>561.7620023321338</v>
       </c>
       <c r="N24" t="n">
-        <v>591.1843577424407</v>
+        <v>591.1843577424409</v>
       </c>
       <c r="O24" t="n">
-        <v>518.3739525207449</v>
+        <v>429.6635409688135</v>
       </c>
       <c r="P24" t="n">
-        <v>396.5124478121415</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>214.6346399548447</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>26.80365839043765</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>71.30315930124087</v>
+        <v>71.3031593012409</v>
       </c>
       <c r="K25" t="n">
         <v>248.3213141096882</v>
       </c>
       <c r="L25" t="n">
-        <v>373.853095704004</v>
+        <v>373.8530957040041</v>
       </c>
       <c r="M25" t="n">
-        <v>404.6697350797633</v>
+        <v>404.6697350797634</v>
       </c>
       <c r="N25" t="n">
-        <v>400.5371047981231</v>
+        <v>400.5371047981232</v>
       </c>
       <c r="O25" t="n">
         <v>353.7827688128082</v>
       </c>
       <c r="P25" t="n">
-        <v>278.9640117036131</v>
+        <v>278.9640117036132</v>
       </c>
       <c r="Q25" t="n">
         <v>108.8623631233092</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>428.7296739538627</v>
+        <v>259.633058781789</v>
       </c>
       <c r="K26" t="n">
-        <v>440.3736807177899</v>
+        <v>440.3736807177901</v>
       </c>
       <c r="L26" t="n">
-        <v>583.5969983621937</v>
+        <v>583.596998362194</v>
       </c>
       <c r="M26" t="n">
-        <v>681.3534385327152</v>
+        <v>681.3534385327155</v>
       </c>
       <c r="N26" t="n">
         <v>697.0388620051351</v>
       </c>
       <c r="O26" t="n">
-        <v>644.7240708403889</v>
+        <v>717.8693812413496</v>
       </c>
       <c r="P26" t="n">
-        <v>741.2549858269629</v>
+        <v>837.2062905980758</v>
       </c>
       <c r="Q26" t="n">
-        <v>338.3902897302938</v>
+        <v>338.3902897302939</v>
       </c>
       <c r="R26" t="n">
-        <v>110.5671292817132</v>
+        <v>110.5671292817133</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>135.6277449267328</v>
+        <v>135.6277449267329</v>
       </c>
       <c r="K27" t="n">
-        <v>310.7536859480768</v>
+        <v>310.7536859480769</v>
       </c>
       <c r="L27" t="n">
-        <v>464.6371257552098</v>
+        <v>464.6371257552099</v>
       </c>
       <c r="M27" t="n">
-        <v>561.7620023321335</v>
+        <v>561.7620023321338</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0356478452274</v>
+        <v>502.4739461905093</v>
       </c>
       <c r="O27" t="n">
-        <v>518.3739525207449</v>
+        <v>518.373952520745</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>214.6346399548447</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>26.80365839043765</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>71.30315930124087</v>
+        <v>71.3031593012409</v>
       </c>
       <c r="K28" t="n">
         <v>248.3213141096882</v>
       </c>
       <c r="L28" t="n">
-        <v>373.853095704004</v>
+        <v>373.8530957040041</v>
       </c>
       <c r="M28" t="n">
-        <v>404.6697350797596</v>
+        <v>404.6697350797634</v>
       </c>
       <c r="N28" t="n">
-        <v>400.5371047981231</v>
+        <v>400.5371047981232</v>
       </c>
       <c r="O28" t="n">
         <v>353.7827688128082</v>
       </c>
       <c r="P28" t="n">
-        <v>278.9640117036131</v>
+        <v>278.9640117036132</v>
       </c>
       <c r="Q28" t="n">
         <v>108.8623631233092</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>259.6330587817889</v>
+        <v>259.633058781789</v>
       </c>
       <c r="K29" t="n">
-        <v>440.3736807177899</v>
+        <v>440.3736807177901</v>
       </c>
       <c r="L29" t="n">
-        <v>978.5410169346371</v>
+        <v>583.596998362194</v>
       </c>
       <c r="M29" t="n">
-        <v>681.3534385327152</v>
+        <v>681.3534385327155</v>
       </c>
       <c r="N29" t="n">
-        <v>697.0388620051351</v>
+        <v>1091.982880577578</v>
       </c>
       <c r="O29" t="n">
-        <v>644.7240708403889</v>
+        <v>644.724070840389</v>
       </c>
       <c r="P29" t="n">
         <v>515.4075824265931</v>
       </c>
       <c r="Q29" t="n">
-        <v>338.3902897302938</v>
+        <v>338.3902897302939</v>
       </c>
       <c r="R29" t="n">
-        <v>110.5671292817132</v>
+        <v>110.5671292817133</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>135.6277449267329</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>310.7536859480769</v>
       </c>
       <c r="L30" t="n">
-        <v>464.6371257552098</v>
+        <v>464.6371257552099</v>
       </c>
       <c r="M30" t="n">
-        <v>561.7620023321335</v>
+        <v>473.051590780202</v>
       </c>
       <c r="N30" t="n">
-        <v>591.1843577424407</v>
+        <v>591.1843577424409</v>
       </c>
       <c r="O30" t="n">
-        <v>518.3739525207449</v>
+        <v>518.373952520745</v>
       </c>
       <c r="P30" t="n">
-        <v>143.0363793680338</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>214.6346399548447</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>71.30315930124087</v>
+        <v>71.3031593012409</v>
       </c>
       <c r="K31" t="n">
         <v>248.3213141096882</v>
       </c>
       <c r="L31" t="n">
-        <v>373.853095704004</v>
+        <v>373.8530957040041</v>
       </c>
       <c r="M31" t="n">
-        <v>404.6697350797633</v>
+        <v>404.6697350797634</v>
       </c>
       <c r="N31" t="n">
-        <v>400.5371047981231</v>
+        <v>400.5371047981232</v>
       </c>
       <c r="O31" t="n">
         <v>353.7827688128082</v>
       </c>
       <c r="P31" t="n">
-        <v>278.9640117036131</v>
+        <v>278.9640117036132</v>
       </c>
       <c r="Q31" t="n">
         <v>108.8623631233092</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>259.6330587817889</v>
+        <v>259.633058781789</v>
       </c>
       <c r="K32" t="n">
-        <v>440.3736807177899</v>
+        <v>440.3736807177901</v>
       </c>
       <c r="L32" t="n">
-        <v>583.5969983621937</v>
+        <v>583.596998362194</v>
       </c>
       <c r="M32" t="n">
-        <v>1076.29745710516</v>
+        <v>681.3534385327155</v>
       </c>
       <c r="N32" t="n">
         <v>697.0388620051351</v>
       </c>
       <c r="O32" t="n">
-        <v>644.7240708403889</v>
+        <v>1025.524252103134</v>
       </c>
       <c r="P32" t="n">
-        <v>515.4075824265931</v>
+        <v>529.5514197362908</v>
       </c>
       <c r="Q32" t="n">
-        <v>338.3902897302938</v>
+        <v>338.3902897302939</v>
       </c>
       <c r="R32" t="n">
-        <v>110.5671292817132</v>
+        <v>110.5671292817133</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>135.6277449267329</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>310.7536859480769</v>
       </c>
       <c r="L33" t="n">
-        <v>464.6371257552098</v>
+        <v>464.6371257552099</v>
       </c>
       <c r="M33" t="n">
-        <v>561.7620023321335</v>
+        <v>473.051590780202</v>
       </c>
       <c r="N33" t="n">
-        <v>591.1843577424407</v>
+        <v>591.1843577424409</v>
       </c>
       <c r="O33" t="n">
-        <v>518.3739525207449</v>
+        <v>518.373952520745</v>
       </c>
       <c r="P33" t="n">
-        <v>357.6710193228787</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>71.30315930124087</v>
+        <v>71.3031593012409</v>
       </c>
       <c r="K34" t="n">
         <v>248.3213141096882</v>
       </c>
       <c r="L34" t="n">
-        <v>373.853095704004</v>
+        <v>373.8530957040041</v>
       </c>
       <c r="M34" t="n">
-        <v>404.6697350797633</v>
+        <v>404.6697350797634</v>
       </c>
       <c r="N34" t="n">
-        <v>400.5371047981231</v>
+        <v>400.5371047981232</v>
       </c>
       <c r="O34" t="n">
         <v>353.7827688128082</v>
       </c>
       <c r="P34" t="n">
-        <v>278.9640117036131</v>
+        <v>278.9640117036132</v>
       </c>
       <c r="Q34" t="n">
         <v>108.8623631233092</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>259.6330587817889</v>
+        <v>259.633058781789</v>
       </c>
       <c r="K35" t="n">
-        <v>440.3736807177899</v>
+        <v>440.3736807177901</v>
       </c>
       <c r="L35" t="n">
-        <v>978.541016934638</v>
+        <v>583.596998362194</v>
       </c>
       <c r="M35" t="n">
-        <v>681.3534385327152</v>
+        <v>681.3534385327155</v>
       </c>
       <c r="N35" t="n">
-        <v>697.0388620051351</v>
+        <v>1091.982880577577</v>
       </c>
       <c r="O35" t="n">
-        <v>644.7240708403889</v>
+        <v>644.724070840389</v>
       </c>
       <c r="P35" t="n">
         <v>515.4075824265931</v>
       </c>
       <c r="Q35" t="n">
-        <v>338.3902897302938</v>
+        <v>338.3902897302939</v>
       </c>
       <c r="R35" t="n">
-        <v>110.5671292817132</v>
+        <v>110.5671292817133</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>135.6277449267329</v>
       </c>
       <c r="K36" t="n">
-        <v>116.2327209775962</v>
+        <v>310.7536859480769</v>
       </c>
       <c r="L36" t="n">
-        <v>464.6371257552098</v>
+        <v>464.6371257552099</v>
       </c>
       <c r="M36" t="n">
-        <v>561.7620023321335</v>
+        <v>561.7620023321338</v>
       </c>
       <c r="N36" t="n">
-        <v>591.1843577424407</v>
+        <v>591.1843577424409</v>
       </c>
       <c r="O36" t="n">
-        <v>518.3739525207449</v>
+        <v>33.15109315667174</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.5124478121417</v>
       </c>
       <c r="Q36" t="n">
-        <v>214.6346399548447</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>26.80365839043765</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>71.30315930124087</v>
+        <v>71.3031593012409</v>
       </c>
       <c r="K37" t="n">
         <v>248.3213141096882</v>
       </c>
       <c r="L37" t="n">
-        <v>373.8530957040031</v>
+        <v>373.8530957040041</v>
       </c>
       <c r="M37" t="n">
-        <v>404.6697350797633</v>
+        <v>404.6697350797634</v>
       </c>
       <c r="N37" t="n">
-        <v>400.5371047981231</v>
+        <v>400.5371047981232</v>
       </c>
       <c r="O37" t="n">
         <v>353.7827688128082</v>
       </c>
       <c r="P37" t="n">
-        <v>278.9640117036131</v>
+        <v>278.9640117036132</v>
       </c>
       <c r="Q37" t="n">
         <v>108.8623631233092</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>259.6330587817889</v>
+        <v>259.633058781789</v>
       </c>
       <c r="K38" t="n">
-        <v>440.3736807177899</v>
+        <v>440.3736807177901</v>
       </c>
       <c r="L38" t="n">
-        <v>583.5969983621937</v>
+        <v>583.596998362194</v>
       </c>
       <c r="M38" t="n">
-        <v>681.3534385327152</v>
+        <v>681.3534385327155</v>
       </c>
       <c r="N38" t="n">
-        <v>1091.98288057758</v>
+        <v>697.0388620051351</v>
       </c>
       <c r="O38" t="n">
-        <v>644.7240708403889</v>
+        <v>644.724070840389</v>
       </c>
       <c r="P38" t="n">
-        <v>515.4075824265931</v>
+        <v>698.0366103391314</v>
       </c>
       <c r="Q38" t="n">
-        <v>338.3902897302938</v>
+        <v>550.7052803901986</v>
       </c>
       <c r="R38" t="n">
-        <v>110.5671292817132</v>
+        <v>110.5671292817133</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>135.6277449267329</v>
       </c>
       <c r="K39" t="n">
-        <v>310.7536859480768</v>
+        <v>310.7536859480769</v>
       </c>
       <c r="L39" t="n">
-        <v>464.6371257552098</v>
+        <v>464.6371257552099</v>
       </c>
       <c r="M39" t="n">
-        <v>212.1668878947939</v>
+        <v>561.7620023321338</v>
       </c>
       <c r="N39" t="n">
-        <v>591.1843577424407</v>
+        <v>591.1843577424409</v>
       </c>
       <c r="O39" t="n">
-        <v>518.3739525207449</v>
+        <v>33.15109315667174</v>
       </c>
       <c r="P39" t="n">
-        <v>396.5124478121415</v>
+        <v>396.5124478121417</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>71.30315930124087</v>
+        <v>71.3031593012409</v>
       </c>
       <c r="K40" t="n">
         <v>248.3213141096882</v>
       </c>
       <c r="L40" t="n">
-        <v>373.853095704004</v>
+        <v>373.8530957040041</v>
       </c>
       <c r="M40" t="n">
-        <v>404.6697350797633</v>
+        <v>404.6697350797634</v>
       </c>
       <c r="N40" t="n">
-        <v>400.5371047981231</v>
+        <v>400.5371047981232</v>
       </c>
       <c r="O40" t="n">
         <v>353.7827688128082</v>
       </c>
       <c r="P40" t="n">
-        <v>278.9640117036131</v>
+        <v>278.9640117036132</v>
       </c>
       <c r="Q40" t="n">
         <v>108.8623631233092</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>259.6330587817889</v>
+        <v>428.7296739538627</v>
       </c>
       <c r="K41" t="n">
-        <v>440.3736807177899</v>
+        <v>453.9060934582542</v>
       </c>
       <c r="L41" t="n">
-        <v>978.541016934638</v>
+        <v>583.596998362194</v>
       </c>
       <c r="M41" t="n">
-        <v>681.3534385327152</v>
+        <v>681.3534385327155</v>
       </c>
       <c r="N41" t="n">
         <v>697.0388620051351</v>
       </c>
       <c r="O41" t="n">
-        <v>644.7240708403889</v>
+        <v>644.724070840389</v>
       </c>
       <c r="P41" t="n">
         <v>515.4075824265931</v>
       </c>
       <c r="Q41" t="n">
-        <v>338.3902897302938</v>
+        <v>550.7052803901986</v>
       </c>
       <c r="R41" t="n">
-        <v>110.5671292817132</v>
+        <v>110.5671292817133</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>135.6277449267329</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>310.7536859480769</v>
       </c>
       <c r="L42" t="n">
-        <v>398.9920388755091</v>
+        <v>464.6371257552099</v>
       </c>
       <c r="M42" t="n">
-        <v>561.7620023321335</v>
+        <v>561.7620023321338</v>
       </c>
       <c r="N42" t="n">
-        <v>591.1843577424407</v>
+        <v>591.1843577424409</v>
       </c>
       <c r="O42" t="n">
-        <v>518.3739525207449</v>
+        <v>429.6635409688135</v>
       </c>
       <c r="P42" t="n">
-        <v>396.5124478121415</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>26.80365839043765</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>71.30315930124087</v>
+        <v>71.3031593012409</v>
       </c>
       <c r="K43" t="n">
         <v>248.3213141096882</v>
       </c>
       <c r="L43" t="n">
-        <v>373.853095704004</v>
+        <v>373.8530957040041</v>
       </c>
       <c r="M43" t="n">
-        <v>404.6697350797633</v>
+        <v>404.6697350797634</v>
       </c>
       <c r="N43" t="n">
-        <v>400.5371047981231</v>
+        <v>400.5371047981232</v>
       </c>
       <c r="O43" t="n">
         <v>353.7827688128082</v>
       </c>
       <c r="P43" t="n">
-        <v>278.9640117036131</v>
+        <v>278.9640117036132</v>
       </c>
       <c r="Q43" t="n">
         <v>108.8623631233092</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>259.6330587817889</v>
+        <v>259.633058781789</v>
       </c>
       <c r="K44" t="n">
-        <v>440.3736807177899</v>
+        <v>440.3736807177901</v>
       </c>
       <c r="L44" t="n">
-        <v>583.5969983621937</v>
+        <v>597.7408356718912</v>
       </c>
       <c r="M44" t="n">
-        <v>681.3534385327152</v>
+        <v>681.3534385327155</v>
       </c>
       <c r="N44" t="n">
-        <v>1091.98288057758</v>
+        <v>697.0388620051351</v>
       </c>
       <c r="O44" t="n">
-        <v>644.7240708403889</v>
+        <v>1025.524252103134</v>
       </c>
       <c r="P44" t="n">
         <v>515.4075824265931</v>
       </c>
       <c r="Q44" t="n">
-        <v>338.3902897302938</v>
+        <v>338.3902897302939</v>
       </c>
       <c r="R44" t="n">
-        <v>110.5671292817132</v>
+        <v>110.5671292817133</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>135.6277449267329</v>
       </c>
       <c r="K45" t="n">
-        <v>310.7536859480768</v>
+        <v>310.7536859480769</v>
       </c>
       <c r="L45" t="n">
-        <v>391.9776654933323</v>
+        <v>464.6371257552099</v>
       </c>
       <c r="M45" t="n">
-        <v>561.7620023321335</v>
+        <v>561.7620023321338</v>
       </c>
       <c r="N45" t="n">
-        <v>591.1843577424407</v>
+        <v>591.1843577424409</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>33.15109315667174</v>
       </c>
       <c r="P45" t="n">
-        <v>396.5124478121415</v>
+        <v>396.5124478121417</v>
       </c>
       <c r="Q45" t="n">
-        <v>214.6346399548447</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>26.80365839043765</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>71.30315930124087</v>
+        <v>71.3031593012409</v>
       </c>
       <c r="K46" t="n">
         <v>248.3213141096882</v>
       </c>
       <c r="L46" t="n">
-        <v>373.853095704004</v>
+        <v>373.8530957040041</v>
       </c>
       <c r="M46" t="n">
-        <v>404.6697350797633</v>
+        <v>404.6697350797634</v>
       </c>
       <c r="N46" t="n">
-        <v>400.5371047981265</v>
+        <v>400.5371047981232</v>
       </c>
       <c r="O46" t="n">
         <v>353.7827688128082</v>
       </c>
       <c r="P46" t="n">
-        <v>278.9640117036131</v>
+        <v>278.9640117036132</v>
       </c>
       <c r="Q46" t="n">
         <v>108.8623631233092</v>
